--- a/data/ratings.xlsx
+++ b/data/ratings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/415e9a63ba920c02/Documents/Music/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psygsh\OneDrive\Documents\GitHub Projects\music-ratings-visuals\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="933" documentId="13_ncr:1_{4E7FBB71-3166-4D20-AE43-C36ADD8AAAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD021763-405E-497F-81EF-12917EC91554}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2610EA-923F-4073-8E7A-B21AA03FF99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="957">
   <si>
     <t>Artist</t>
   </si>
@@ -1410,9 +1410,6 @@
     <t>Hybrid Theory</t>
   </si>
   <si>
-    <t>Rock, Hard Rock, Rap Rock</t>
-  </si>
-  <si>
     <t>A Place For My Head</t>
   </si>
   <si>
@@ -2160,9 +2157,6 @@
     <t>Rage Against The Machine</t>
   </si>
   <si>
-    <t>Rock, Metal, Rap Metal, Alt Metal</t>
-  </si>
-  <si>
     <t>Bullet In The Head</t>
   </si>
   <si>
@@ -2316,9 +2310,6 @@
     <t>Slipknot</t>
   </si>
   <si>
-    <t>Rock, Metal, Nu Metal, Alt Metal</t>
-  </si>
-  <si>
     <t>Prosthetics</t>
   </si>
   <si>
@@ -2625,9 +2616,6 @@
     <t>Revolver</t>
   </si>
   <si>
-    <t>Rock, Pop, Pop Rock, Psychedelia</t>
-  </si>
-  <si>
     <t>Eleanor Rigby</t>
   </si>
   <si>
@@ -2911,13 +2899,22 @@
   </si>
   <si>
     <t>Skinny Girl Diet</t>
+  </si>
+  <si>
+    <t>Rock, Metal, Rap Metal</t>
+  </si>
+  <si>
+    <t>Rock, Metal, Alt Metal</t>
+  </si>
+  <si>
+    <t>Rock, Pop, Psychedelia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2946,13 +2943,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2978,6 +2979,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3013,13 +3015,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6D132D4-4AE5-4F6B-96B8-97905489A33B}" name="Table1" displayName="Table1" ref="A1:L257" totalsRowShown="0" dataDxfId="12">
-  <autoFilter ref="A1:L257" xr:uid="{E6D132D4-4AE5-4F6B-96B8-97905489A33B}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Album"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L257" xr:uid="{E6D132D4-4AE5-4F6B-96B8-97905489A33B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J257">
     <sortCondition ref="A3:A257"/>
     <sortCondition ref="G3:G257"/>
@@ -3328,27 +3324,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="46.140625" customWidth="1"/>
-    <col min="12" max="12" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="33" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" customWidth="1"/>
+    <col min="9" max="9" width="24.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.7265625" customWidth="1"/>
+    <col min="11" max="11" width="46.1796875" customWidth="1"/>
+    <col min="12" max="12" width="40.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3364,7 +3360,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -3386,7 +3382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3402,7 +3398,7 @@
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1">
@@ -3424,7 +3420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -3440,7 +3436,7 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="1">
@@ -3462,7 +3458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -3478,7 +3474,7 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="1">
@@ -3500,7 +3496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3516,7 +3512,7 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="1">
@@ -3538,7 +3534,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -3554,7 +3550,7 @@
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="1">
@@ -3576,7 +3572,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -3592,7 +3588,7 @@
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="1">
@@ -3614,7 +3610,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -3630,7 +3626,7 @@
       <c r="E8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="1">
@@ -3652,7 +3648,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -3668,7 +3664,7 @@
       <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G9" s="1">
@@ -3690,7 +3686,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -3706,7 +3702,7 @@
       <c r="E10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="1">
@@ -3728,7 +3724,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
@@ -3744,7 +3740,7 @@
       <c r="E11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G11" s="1">
@@ -3766,7 +3762,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -3782,7 +3778,7 @@
       <c r="E12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>67</v>
       </c>
       <c r="G12" s="1">
@@ -3804,7 +3800,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
@@ -3820,7 +3816,7 @@
       <c r="E13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G13" s="1">
@@ -3842,7 +3838,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -3858,7 +3854,7 @@
       <c r="E14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G14" s="1">
@@ -3880,7 +3876,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>76</v>
       </c>
@@ -3896,7 +3892,7 @@
       <c r="E15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G15" s="1">
@@ -3918,7 +3914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
@@ -3934,7 +3930,7 @@
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G16" s="1">
@@ -3956,7 +3952,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>85</v>
       </c>
@@ -3972,7 +3968,7 @@
       <c r="E17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G17" s="1">
@@ -3994,7 +3990,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>91</v>
       </c>
@@ -4010,7 +4006,7 @@
       <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="4" t="s">
         <v>93</v>
       </c>
       <c r="G18" s="1">
@@ -4032,7 +4028,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>96</v>
       </c>
@@ -4048,7 +4044,7 @@
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="1">
@@ -4066,7 +4062,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" hidden="1">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>96</v>
       </c>
@@ -4082,7 +4078,7 @@
       <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="1">
@@ -4100,7 +4096,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" hidden="1">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>96</v>
       </c>
@@ -4116,7 +4112,7 @@
       <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="1">
@@ -4134,7 +4130,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" hidden="1">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
@@ -4150,7 +4146,7 @@
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="1">
@@ -4168,7 +4164,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" hidden="1">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>96</v>
       </c>
@@ -4184,7 +4180,7 @@
       <c r="E23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="1">
@@ -4202,7 +4198,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>96</v>
       </c>
@@ -4218,7 +4214,7 @@
       <c r="E24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="1">
@@ -4240,7 +4236,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>96</v>
       </c>
@@ -4256,7 +4252,7 @@
       <c r="E25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="1">
@@ -4274,7 +4270,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>96</v>
       </c>
@@ -4290,7 +4286,7 @@
       <c r="E26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="1">
@@ -4312,7 +4308,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>96</v>
       </c>
@@ -4328,7 +4324,7 @@
       <c r="E27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="1">
@@ -4350,7 +4346,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>111</v>
       </c>
@@ -4366,7 +4362,7 @@
       <c r="E28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G28" s="1">
@@ -4388,7 +4384,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>111</v>
       </c>
@@ -4404,7 +4400,7 @@
       <c r="E29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G29" s="1">
@@ -4426,7 +4422,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>115</v>
       </c>
@@ -4442,7 +4438,7 @@
       <c r="E30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="4" t="s">
         <v>117</v>
       </c>
       <c r="G30" s="1">
@@ -4464,7 +4460,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>115</v>
       </c>
@@ -4480,7 +4476,7 @@
       <c r="E31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G31" s="1">
@@ -4498,7 +4494,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>122</v>
       </c>
@@ -4514,7 +4510,7 @@
       <c r="E32" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="4" t="s">
         <v>125</v>
       </c>
       <c r="G32" s="1">
@@ -4536,7 +4532,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>128</v>
       </c>
@@ -4552,7 +4548,7 @@
       <c r="E33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="4" t="s">
         <v>130</v>
       </c>
       <c r="G33" s="1">
@@ -4574,7 +4570,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
@@ -4590,7 +4586,7 @@
       <c r="E34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="4" t="s">
         <v>135</v>
       </c>
       <c r="G34" s="1">
@@ -4612,7 +4608,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>138</v>
       </c>
@@ -4628,7 +4624,7 @@
       <c r="E35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="4" t="s">
         <v>140</v>
       </c>
       <c r="G35" s="1">
@@ -4650,7 +4646,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>143</v>
       </c>
@@ -4666,7 +4662,7 @@
       <c r="E36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="4" t="s">
         <v>145</v>
       </c>
       <c r="G36" s="1">
@@ -4688,7 +4684,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>143</v>
       </c>
@@ -4704,7 +4700,7 @@
       <c r="E37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="4" t="s">
         <v>148</v>
       </c>
       <c r="G37" s="1">
@@ -4726,7 +4722,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>151</v>
       </c>
@@ -4742,7 +4738,7 @@
       <c r="E38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="4" t="s">
         <v>153</v>
       </c>
       <c r="G38" s="1">
@@ -4764,7 +4760,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>151</v>
       </c>
@@ -4780,7 +4776,7 @@
       <c r="E39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="4" t="s">
         <v>153</v>
       </c>
       <c r="G39" s="1">
@@ -4802,7 +4798,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
@@ -4818,7 +4814,7 @@
       <c r="E40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="4" t="s">
         <v>163</v>
       </c>
       <c r="G40" s="1">
@@ -4840,7 +4836,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>160</v>
       </c>
@@ -4856,7 +4852,7 @@
       <c r="E41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="4" t="s">
         <v>163</v>
       </c>
       <c r="G41" s="1">
@@ -4878,7 +4874,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>168</v>
       </c>
@@ -4894,7 +4890,7 @@
       <c r="E42" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="4" t="s">
         <v>170</v>
       </c>
       <c r="G42" s="1">
@@ -4916,7 +4912,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>173</v>
       </c>
@@ -4932,7 +4928,7 @@
       <c r="E43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="4" t="s">
         <v>175</v>
       </c>
       <c r="G43" s="1">
@@ -4954,7 +4950,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>178</v>
       </c>
@@ -4970,7 +4966,7 @@
       <c r="E44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="4" t="s">
         <v>180</v>
       </c>
       <c r="G44" s="1">
@@ -4988,7 +4984,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" hidden="1">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>178</v>
       </c>
@@ -5004,7 +5000,7 @@
       <c r="E45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="4" t="s">
         <v>182</v>
       </c>
       <c r="G45" s="1">
@@ -5022,7 +5018,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>183</v>
       </c>
@@ -5038,7 +5034,7 @@
       <c r="E46" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="4" t="s">
         <v>186</v>
       </c>
       <c r="G46" s="1">
@@ -5060,7 +5056,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>189</v>
       </c>
@@ -5076,7 +5072,7 @@
       <c r="E47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="4" t="s">
         <v>191</v>
       </c>
       <c r="G47" s="1">
@@ -5098,7 +5094,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>189</v>
       </c>
@@ -5114,7 +5110,7 @@
       <c r="E48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="4" t="s">
         <v>195</v>
       </c>
       <c r="G48" s="1">
@@ -5136,7 +5132,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>198</v>
       </c>
@@ -5152,7 +5148,7 @@
       <c r="E49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="4" t="s">
         <v>200</v>
       </c>
       <c r="G49" s="1">
@@ -5174,7 +5170,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>198</v>
       </c>
@@ -5190,7 +5186,7 @@
       <c r="E50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="4" t="s">
         <v>204</v>
       </c>
       <c r="G50" s="1">
@@ -5212,7 +5208,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>198</v>
       </c>
@@ -5228,7 +5224,7 @@
       <c r="E51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="4" t="s">
         <v>208</v>
       </c>
       <c r="G51" s="1">
@@ -5246,7 +5242,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>209</v>
       </c>
@@ -5262,7 +5258,7 @@
       <c r="E52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="4" t="s">
         <v>211</v>
       </c>
       <c r="G52" s="1">
@@ -5284,7 +5280,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>214</v>
       </c>
@@ -5300,7 +5296,7 @@
       <c r="E53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G53" s="1">
@@ -5322,7 +5318,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>218</v>
       </c>
@@ -5338,7 +5334,7 @@
       <c r="E54" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="4" t="s">
         <v>220</v>
       </c>
       <c r="G54" s="1">
@@ -5360,7 +5356,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>223</v>
       </c>
@@ -5376,7 +5372,7 @@
       <c r="E55" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="4" t="s">
         <v>225</v>
       </c>
       <c r="G55" s="1">
@@ -5398,7 +5394,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>229</v>
       </c>
@@ -5414,7 +5410,7 @@
       <c r="E56" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G56" s="1">
@@ -5436,7 +5432,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>233</v>
       </c>
@@ -5452,7 +5448,7 @@
       <c r="E57" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G57" s="1">
@@ -5474,7 +5470,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>233</v>
       </c>
@@ -5490,7 +5486,7 @@
       <c r="E58" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G58" s="1">
@@ -5512,7 +5508,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>233</v>
       </c>
@@ -5528,7 +5524,7 @@
       <c r="E59" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="4" t="s">
         <v>242</v>
       </c>
       <c r="G59" s="1">
@@ -5550,7 +5546,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>233</v>
       </c>
@@ -5566,7 +5562,7 @@
       <c r="E60" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="4" t="s">
         <v>145</v>
       </c>
       <c r="G60" s="1">
@@ -5584,7 +5580,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>233</v>
       </c>
@@ -5600,7 +5596,7 @@
       <c r="E61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="4" t="s">
         <v>145</v>
       </c>
       <c r="G61" s="1">
@@ -5618,7 +5614,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>250</v>
       </c>
@@ -5634,7 +5630,7 @@
       <c r="E62" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="4" t="s">
         <v>251</v>
       </c>
       <c r="G62" s="1">
@@ -5656,7 +5652,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>250</v>
       </c>
@@ -5672,7 +5668,7 @@
       <c r="E63" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="4" t="s">
         <v>256</v>
       </c>
       <c r="G63" s="1">
@@ -5694,7 +5690,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>258</v>
       </c>
@@ -5710,7 +5706,7 @@
       <c r="E64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="4" t="s">
         <v>260</v>
       </c>
       <c r="G64" s="1">
@@ -5732,7 +5728,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>258</v>
       </c>
@@ -5748,7 +5744,7 @@
       <c r="E65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="4" t="s">
         <v>264</v>
       </c>
       <c r="G65" s="1">
@@ -5770,7 +5766,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>267</v>
       </c>
@@ -5786,7 +5782,7 @@
       <c r="E66" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="4" t="s">
         <v>140</v>
       </c>
       <c r="G66" s="1">
@@ -5808,7 +5804,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>271</v>
       </c>
@@ -5824,7 +5820,7 @@
       <c r="E67" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="4" t="s">
         <v>272</v>
       </c>
       <c r="G67" s="1">
@@ -5846,7 +5842,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>271</v>
       </c>
@@ -5862,7 +5858,7 @@
       <c r="E68" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="4" t="s">
         <v>272</v>
       </c>
       <c r="G68" s="1">
@@ -5884,7 +5880,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>278</v>
       </c>
@@ -5900,7 +5896,7 @@
       <c r="E69" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="4" t="s">
         <v>280</v>
       </c>
       <c r="G69" s="1">
@@ -5922,7 +5918,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>283</v>
       </c>
@@ -5938,7 +5934,7 @@
       <c r="E70" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="4" t="s">
         <v>285</v>
       </c>
       <c r="G70" s="1">
@@ -5960,7 +5956,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>100</v>
       </c>
@@ -5976,7 +5972,7 @@
       <c r="E71" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G71" s="1">
@@ -5994,7 +5990,7 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>289</v>
       </c>
@@ -6010,7 +6006,7 @@
       <c r="E72" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="4" t="s">
         <v>291</v>
       </c>
       <c r="G72" s="1">
@@ -6032,7 +6028,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>294</v>
       </c>
@@ -6048,7 +6044,7 @@
       <c r="E73" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="4" t="s">
         <v>296</v>
       </c>
       <c r="G73" s="1">
@@ -6070,7 +6066,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>294</v>
       </c>
@@ -6086,7 +6082,7 @@
       <c r="E74" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="4" t="s">
         <v>296</v>
       </c>
       <c r="G74" s="1">
@@ -6108,7 +6104,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>294</v>
       </c>
@@ -6124,7 +6120,7 @@
       <c r="E75" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="4" t="s">
         <v>303</v>
       </c>
       <c r="G75" s="1">
@@ -6146,7 +6142,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>306</v>
       </c>
@@ -6162,7 +6158,7 @@
       <c r="E76" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="4" t="s">
         <v>308</v>
       </c>
       <c r="G76" s="1">
@@ -6184,7 +6180,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>311</v>
       </c>
@@ -6200,7 +6196,7 @@
       <c r="E77" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="4" t="s">
         <v>313</v>
       </c>
       <c r="G77" s="1">
@@ -6222,7 +6218,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>311</v>
       </c>
@@ -6238,7 +6234,7 @@
       <c r="E78" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="4" t="s">
         <v>317</v>
       </c>
       <c r="G78" s="1">
@@ -6260,7 +6256,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>311</v>
       </c>
@@ -6276,7 +6272,7 @@
       <c r="E79" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="4" t="s">
         <v>321</v>
       </c>
       <c r="G79" s="1">
@@ -6298,7 +6294,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>311</v>
       </c>
@@ -6314,7 +6310,7 @@
       <c r="E80" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G80" s="1">
@@ -6336,7 +6332,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>325</v>
       </c>
@@ -6352,7 +6348,7 @@
       <c r="E81" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="4" t="s">
         <v>327</v>
       </c>
       <c r="G81" s="1">
@@ -6374,7 +6370,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>329</v>
       </c>
@@ -6390,7 +6386,7 @@
       <c r="E82" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="4" t="s">
         <v>331</v>
       </c>
       <c r="G82" s="1">
@@ -6412,7 +6408,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>334</v>
       </c>
@@ -6428,7 +6424,7 @@
       <c r="E83" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="4" t="s">
         <v>336</v>
       </c>
       <c r="G83" s="1">
@@ -6450,7 +6446,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>339</v>
       </c>
@@ -6466,7 +6462,7 @@
       <c r="E84" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="4" t="s">
         <v>341</v>
       </c>
       <c r="G84" s="1">
@@ -6488,7 +6484,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>344</v>
       </c>
@@ -6504,7 +6500,7 @@
       <c r="E85" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="4" t="s">
         <v>346</v>
       </c>
       <c r="G85" s="1">
@@ -6526,7 +6522,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>344</v>
       </c>
@@ -6542,7 +6538,7 @@
       <c r="E86" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="4" t="s">
         <v>346</v>
       </c>
       <c r="G86" s="1">
@@ -6564,7 +6560,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>344</v>
       </c>
@@ -6580,7 +6576,7 @@
       <c r="E87" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="4" t="s">
         <v>346</v>
       </c>
       <c r="G87" s="1">
@@ -6602,7 +6598,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>355</v>
       </c>
@@ -6618,7 +6614,7 @@
       <c r="E88" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="4" t="s">
         <v>357</v>
       </c>
       <c r="G88" s="1">
@@ -6631,7 +6627,7 @@
         <v>18</v>
       </c>
       <c r="J88" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>358</v>
@@ -6640,7 +6636,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>360</v>
       </c>
@@ -6656,7 +6652,7 @@
       <c r="E89" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="4" t="s">
         <v>362</v>
       </c>
       <c r="G89" s="1">
@@ -6678,7 +6674,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>360</v>
       </c>
@@ -6694,7 +6690,7 @@
       <c r="E90" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="4" t="s">
         <v>366</v>
       </c>
       <c r="G90" s="1">
@@ -6716,7 +6712,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>360</v>
       </c>
@@ -6732,7 +6728,7 @@
       <c r="E91" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="4" t="s">
         <v>370</v>
       </c>
       <c r="G91" s="1">
@@ -6754,7 +6750,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>373</v>
       </c>
@@ -6770,7 +6766,7 @@
       <c r="E92" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="4" t="s">
         <v>375</v>
       </c>
       <c r="G92" s="1">
@@ -6792,7 +6788,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>378</v>
       </c>
@@ -6808,7 +6804,7 @@
       <c r="E93" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="4" t="s">
         <v>380</v>
       </c>
       <c r="G93" s="1">
@@ -6830,7 +6826,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>384</v>
       </c>
@@ -6846,7 +6842,7 @@
       <c r="E94" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="4" t="s">
         <v>386</v>
       </c>
       <c r="G94" s="1">
@@ -6868,7 +6864,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>384</v>
       </c>
@@ -6884,7 +6880,7 @@
       <c r="E95" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="4" t="s">
         <v>386</v>
       </c>
       <c r="G95" s="1">
@@ -6906,7 +6902,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>393</v>
       </c>
@@ -6922,7 +6918,7 @@
       <c r="E96" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="4" t="s">
         <v>163</v>
       </c>
       <c r="G96" s="1">
@@ -6944,7 +6940,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>393</v>
       </c>
@@ -6960,7 +6956,7 @@
       <c r="E97" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="4" t="s">
         <v>163</v>
       </c>
       <c r="G97" s="1">
@@ -6982,7 +6978,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>393</v>
       </c>
@@ -6998,7 +6994,7 @@
       <c r="E98" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="4" t="s">
         <v>401</v>
       </c>
       <c r="G98" s="1">
@@ -7020,7 +7016,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>404</v>
       </c>
@@ -7036,7 +7032,7 @@
       <c r="E99" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="4" t="s">
         <v>405</v>
       </c>
       <c r="G99" s="1">
@@ -7058,7 +7054,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>409</v>
       </c>
@@ -7074,7 +7070,7 @@
       <c r="E100" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="4" t="s">
         <v>410</v>
       </c>
       <c r="G100" s="1">
@@ -7096,7 +7092,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>409</v>
       </c>
@@ -7112,7 +7108,7 @@
       <c r="E101" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="4" t="s">
         <v>415</v>
       </c>
       <c r="G101" s="1">
@@ -7134,7 +7130,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>409</v>
       </c>
@@ -7150,7 +7146,7 @@
       <c r="E102" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F102" s="4" t="s">
         <v>419</v>
       </c>
       <c r="G102" s="1">
@@ -7172,7 +7168,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>409</v>
       </c>
@@ -7188,7 +7184,7 @@
       <c r="E103" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F103" s="4" t="s">
         <v>423</v>
       </c>
       <c r="G103" s="1">
@@ -7210,7 +7206,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>426</v>
       </c>
@@ -7226,7 +7222,7 @@
       <c r="E104" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F104" s="4" t="s">
         <v>428</v>
       </c>
       <c r="G104" s="1">
@@ -7248,7 +7244,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>426</v>
       </c>
@@ -7264,7 +7260,7 @@
       <c r="E105" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F105" s="4" t="s">
         <v>428</v>
       </c>
       <c r="G105" s="1">
@@ -7280,7 +7276,7 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>426</v>
       </c>
@@ -7296,7 +7292,7 @@
       <c r="E106" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" s="4" t="s">
         <v>433</v>
       </c>
       <c r="G106" s="1">
@@ -7318,7 +7314,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>436</v>
       </c>
@@ -7334,7 +7330,7 @@
       <c r="E107" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F107" s="4" t="s">
         <v>438</v>
       </c>
       <c r="G107" s="1">
@@ -7356,7 +7352,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>441</v>
       </c>
@@ -7372,7 +7368,7 @@
       <c r="E108" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="4" t="s">
         <v>443</v>
       </c>
       <c r="G108" s="1">
@@ -7394,7 +7390,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>446</v>
       </c>
@@ -7408,7 +7404,7 @@
         <v>11</v>
       </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="1" t="s">
+      <c r="F109" s="4" t="s">
         <v>448</v>
       </c>
       <c r="G109" s="1">
@@ -7430,7 +7426,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>446</v>
       </c>
@@ -7444,7 +7440,7 @@
         <v>12</v>
       </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="1" t="s">
+      <c r="F110" s="4" t="s">
         <v>452</v>
       </c>
       <c r="G110" s="1">
@@ -7466,7 +7462,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>455</v>
       </c>
@@ -7480,8 +7476,8 @@
         <v>12</v>
       </c>
       <c r="E111" s="1"/>
-      <c r="F111" s="1" t="s">
-        <v>457</v>
+      <c r="F111" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="G111" s="1">
         <v>2000</v>
@@ -7496,18 +7492,18 @@
         <v>5</v>
       </c>
       <c r="K111" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="L111" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="L111" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>455</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>14</v>
@@ -7518,8 +7514,8 @@
       <c r="E112" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>461</v>
+      <c r="F112" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="G112" s="1">
         <v>2024</v>
@@ -7534,18 +7530,18 @@
         <v>3</v>
       </c>
       <c r="K112" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="L112" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="L112" s="1" t="s">
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="113" spans="1:12">
-      <c r="A113" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>14</v>
@@ -7556,8 +7552,8 @@
       <c r="E113" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>466</v>
+      <c r="F113" s="4" t="s">
+        <v>465</v>
       </c>
       <c r="G113" s="1">
         <v>2014</v>
@@ -7572,18 +7568,18 @@
         <v>4</v>
       </c>
       <c r="K113" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="L113" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="L113" s="1" t="s">
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="114" spans="1:12">
-      <c r="A114" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>14</v>
@@ -7594,7 +7590,7 @@
       <c r="E114" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F114" s="4" t="s">
         <v>366</v>
       </c>
       <c r="G114" s="1">
@@ -7610,18 +7606,18 @@
         <v>4</v>
       </c>
       <c r="K114" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="L114" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="L114" s="1" t="s">
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="115" spans="1:12">
-      <c r="A115" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>14</v>
@@ -7630,16 +7626,16 @@
         <v>12</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F115" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F115" s="4" t="s">
         <v>163</v>
       </c>
       <c r="G115" s="1">
         <v>2012</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>18</v>
@@ -7648,18 +7644,18 @@
         <v>4</v>
       </c>
       <c r="K115" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="L115" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="L115" s="1" t="s">
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>478</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
-      <c r="A116" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>14</v>
@@ -7670,14 +7666,14 @@
       <c r="E116" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="4" t="s">
         <v>401</v>
       </c>
       <c r="G116" s="1">
         <v>2015</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>18</v>
@@ -7686,18 +7682,18 @@
         <v>4</v>
       </c>
       <c r="K116" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="L116" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="L116" s="1" t="s">
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="117" spans="1:12">
-      <c r="A117" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>14</v>
@@ -7708,8 +7704,8 @@
       <c r="E117" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>484</v>
+      <c r="F117" s="4" t="s">
+        <v>483</v>
       </c>
       <c r="G117" s="1">
         <v>1971</v>
@@ -7724,18 +7720,18 @@
         <v>3</v>
       </c>
       <c r="K117" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="L117" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="L117" s="1" t="s">
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="118" spans="1:12">
-      <c r="A118" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>14</v>
@@ -7746,8 +7742,8 @@
       <c r="E118" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>489</v>
+      <c r="F118" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="G118" s="1">
         <v>1998</v>
@@ -7762,18 +7758,18 @@
         <v>3</v>
       </c>
       <c r="K118" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="L118" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="L118" s="1" t="s">
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="119" spans="1:12">
-      <c r="A119" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>14</v>
@@ -7784,8 +7780,8 @@
       <c r="E119" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>494</v>
+      <c r="F119" s="4" t="s">
+        <v>493</v>
       </c>
       <c r="G119" s="1">
         <v>2004</v>
@@ -7800,18 +7796,18 @@
         <v>2</v>
       </c>
       <c r="K119" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="L119" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="L119" s="1" t="s">
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>496</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
-      <c r="A120" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>497</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>14</v>
@@ -7822,8 +7818,8 @@
       <c r="E120" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>498</v>
+      <c r="F120" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="G120" s="1">
         <v>2005</v>
@@ -7838,18 +7834,18 @@
         <v>2</v>
       </c>
       <c r="K120" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L120" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="L120" s="1" t="s">
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
-      <c r="A121" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>14</v>
@@ -7860,8 +7856,8 @@
       <c r="E121" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>498</v>
+      <c r="F121" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="G121" s="1">
         <v>2006</v>
@@ -7876,18 +7872,18 @@
         <v>2</v>
       </c>
       <c r="K121" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="L121" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="L121" s="1" t="s">
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="122" spans="1:12">
-      <c r="A122" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>14</v>
@@ -7898,8 +7894,8 @@
       <c r="E122" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>506</v>
+      <c r="F122" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="G122" s="1">
         <v>1977</v>
@@ -7914,18 +7910,18 @@
         <v>1</v>
       </c>
       <c r="K122" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="L122" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="L122" s="1" t="s">
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="123" spans="1:12">
-      <c r="A123" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>14</v>
@@ -7936,8 +7932,8 @@
       <c r="E123" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>511</v>
+      <c r="F123" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="G123" s="1">
         <v>1986</v>
@@ -7952,18 +7948,18 @@
         <v>4</v>
       </c>
       <c r="K123" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="L123" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="L123" s="1" t="s">
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
-      <c r="A124" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>14</v>
@@ -7974,8 +7970,8 @@
       <c r="E124" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>511</v>
+      <c r="F124" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="G124" s="1">
         <v>1990</v>
@@ -7990,18 +7986,18 @@
         <v>5</v>
       </c>
       <c r="K124" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="L124" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="L124" s="1" t="s">
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>516</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
-      <c r="A125" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>14</v>
@@ -8012,8 +8008,8 @@
       <c r="E125" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>511</v>
+      <c r="F125" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="G125" s="1">
         <v>1992</v>
@@ -8028,18 +8024,18 @@
         <v>4</v>
       </c>
       <c r="K125" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="L125" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="L125" s="1" t="s">
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="126" spans="1:12">
-      <c r="A126" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>14</v>
@@ -8050,8 +8046,8 @@
       <c r="E126" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>511</v>
+      <c r="F126" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="G126" s="1">
         <v>1983</v>
@@ -8066,18 +8062,18 @@
         <v>4</v>
       </c>
       <c r="K126" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="L126" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="L126" s="1" t="s">
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
-      <c r="A127" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>14</v>
@@ -8088,8 +8084,8 @@
       <c r="E127" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>511</v>
+      <c r="F127" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="G127" s="1">
         <v>1984</v>
@@ -8104,18 +8100,18 @@
         <v>4</v>
       </c>
       <c r="K127" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="L127" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="L127" s="1" t="s">
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>524</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
-      <c r="A128" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>14</v>
@@ -8126,8 +8122,8 @@
       <c r="E128" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>511</v>
+      <c r="F128" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="G128" s="1">
         <v>1986</v>
@@ -8142,18 +8138,18 @@
         <v>4</v>
       </c>
       <c r="K128" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="L128" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="L128" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>14</v>
@@ -8164,7 +8160,7 @@
       <c r="E129" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G129" s="1">
@@ -8180,18 +8176,18 @@
         <v>4</v>
       </c>
       <c r="K129" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="L129" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="L129" s="1" t="s">
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="130" spans="1:12">
-      <c r="A130" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>14</v>
@@ -8202,8 +8198,8 @@
       <c r="E130" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>531</v>
+      <c r="F130" s="4" t="s">
+        <v>530</v>
       </c>
       <c r="G130" s="1">
         <v>2007</v>
@@ -8218,18 +8214,18 @@
         <v>4</v>
       </c>
       <c r="K130" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="L130" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="L130" s="1" t="s">
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="131" spans="1:12">
-      <c r="A131" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>14</v>
@@ -8240,8 +8236,8 @@
       <c r="E131" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>536</v>
+      <c r="F131" s="4" t="s">
+        <v>535</v>
       </c>
       <c r="G131" s="1">
         <v>1982</v>
@@ -8256,18 +8252,18 @@
         <v>3</v>
       </c>
       <c r="K131" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="L131" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="L131" s="1" t="s">
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="132" spans="1:12">
-      <c r="A132" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>14</v>
@@ -8276,8 +8272,8 @@
         <v>11</v>
       </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="1" t="s">
-        <v>498</v>
+      <c r="F132" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="G132" s="1">
         <v>2007</v>
@@ -8292,18 +8288,18 @@
         <v>4</v>
       </c>
       <c r="K132" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="L132" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="L132" s="1" t="s">
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="133" spans="1:12">
-      <c r="A133" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>14</v>
@@ -8314,8 +8310,8 @@
       <c r="E133" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>545</v>
+      <c r="F133" s="4" t="s">
+        <v>544</v>
       </c>
       <c r="G133" s="1">
         <v>1959</v>
@@ -8324,24 +8320,24 @@
         <v>17</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J133" s="1">
         <v>1</v>
       </c>
       <c r="K133" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="L133" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="L133" s="1" t="s">
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="134" spans="1:12">
-      <c r="A134" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>14</v>
@@ -8352,8 +8348,8 @@
       <c r="E134" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>551</v>
+      <c r="F134" s="4" t="s">
+        <v>550</v>
       </c>
       <c r="G134" s="1">
         <v>1998</v>
@@ -8368,18 +8364,18 @@
         <v>3</v>
       </c>
       <c r="K134" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="L134" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="L134" s="1" t="s">
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>553</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
-      <c r="A135" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>14</v>
@@ -8390,8 +8386,8 @@
       <c r="E135" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>555</v>
+      <c r="F135" s="4" t="s">
+        <v>554</v>
       </c>
       <c r="G135" s="1">
         <v>2010</v>
@@ -8406,19 +8402,19 @@
         <v>2</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L135" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="136" spans="1:12">
-      <c r="A136" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="C136" s="1" t="s">
         <v>14</v>
       </c>
@@ -8428,7 +8424,7 @@
       <c r="E136" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F136" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G136" s="1">
@@ -8444,18 +8440,18 @@
         <v>5</v>
       </c>
       <c r="K136" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="L136" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="L136" s="1" t="s">
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="137" spans="1:12">
-      <c r="A137" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>14</v>
@@ -8466,7 +8462,7 @@
       <c r="E137" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F137" s="4" t="s">
         <v>285</v>
       </c>
       <c r="G137" s="1">
@@ -8482,18 +8478,18 @@
         <v>5</v>
       </c>
       <c r="K137" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="L137" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="L137" s="1" t="s">
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>564</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
-      <c r="A138" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>14</v>
@@ -8504,8 +8500,8 @@
       <c r="E138" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>506</v>
+      <c r="F138" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="G138" s="1">
         <v>2003</v>
@@ -8520,18 +8516,18 @@
         <v>5</v>
       </c>
       <c r="K138" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="L138" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="L138" s="1" t="s">
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>567</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
-      <c r="A139" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>14</v>
@@ -8542,8 +8538,8 @@
       <c r="E139" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>506</v>
+      <c r="F139" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="G139" s="1">
         <v>2006</v>
@@ -8558,18 +8554,18 @@
         <v>4</v>
       </c>
       <c r="K139" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="L139" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="L139" s="1" t="s">
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>570</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
-      <c r="A140" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>14</v>
@@ -8580,8 +8576,8 @@
       <c r="E140" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>506</v>
+      <c r="F140" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="G140" s="1">
         <v>2009</v>
@@ -8596,18 +8592,18 @@
         <v>4</v>
       </c>
       <c r="K140" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="L140" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="L140" s="1" t="s">
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>573</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
-      <c r="A141" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>14</v>
@@ -8618,8 +8614,8 @@
       <c r="E141" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>506</v>
+      <c r="F141" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="G141" s="1">
         <v>2012</v>
@@ -8634,18 +8630,18 @@
         <v>3</v>
       </c>
       <c r="K141" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="L141" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="L141" s="1" t="s">
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>576</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
-      <c r="A142" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>14</v>
@@ -8656,8 +8652,8 @@
       <c r="E142" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>506</v>
+      <c r="F142" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="G142" s="1">
         <v>2015</v>
@@ -8672,18 +8668,18 @@
         <v>4</v>
       </c>
       <c r="K142" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="L142" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="L142" s="1" t="s">
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="143" spans="1:12">
-      <c r="A143" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>14</v>
@@ -8694,8 +8690,8 @@
       <c r="E143" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>582</v>
+      <c r="F143" s="4" t="s">
+        <v>581</v>
       </c>
       <c r="G143" s="1">
         <v>2002</v>
@@ -8710,18 +8706,18 @@
         <v>3</v>
       </c>
       <c r="K143" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="L143" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="L143" s="1" t="s">
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>584</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
-      <c r="A144" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>14</v>
@@ -8732,8 +8728,8 @@
       <c r="E144" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>582</v>
+      <c r="F144" s="4" t="s">
+        <v>581</v>
       </c>
       <c r="G144" s="1">
         <v>2004</v>
@@ -8748,18 +8744,18 @@
         <v>4</v>
       </c>
       <c r="K144" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="L144" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="L144" s="1" t="s">
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>587</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
-      <c r="A145" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>14</v>
@@ -8770,8 +8766,8 @@
       <c r="E145" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>582</v>
+      <c r="F145" s="4" t="s">
+        <v>581</v>
       </c>
       <c r="G145" s="1">
         <v>2006</v>
@@ -8786,18 +8782,18 @@
         <v>5</v>
       </c>
       <c r="K145" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="L145" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="L145" s="1" t="s">
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>590</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="A146" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>14</v>
@@ -8808,8 +8804,8 @@
       <c r="E146" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>592</v>
+      <c r="F146" s="4" t="s">
+        <v>591</v>
       </c>
       <c r="G146" s="1">
         <v>2010</v>
@@ -8824,18 +8820,18 @@
         <v>4</v>
       </c>
       <c r="K146" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="L146" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="L146" s="1" t="s">
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>594</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>595</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>14</v>
@@ -8846,8 +8842,8 @@
       <c r="E147" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>506</v>
+      <c r="F147" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="G147" s="1">
         <v>2013</v>
@@ -8861,15 +8857,15 @@
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>596</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" hidden="1">
-      <c r="A148" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>98</v>
@@ -8880,8 +8876,8 @@
       <c r="E148" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>582</v>
+      <c r="F148" s="4" t="s">
+        <v>581</v>
       </c>
       <c r="G148" s="1">
         <v>2022</v>
@@ -8898,12 +8894,12 @@
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>599</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>14</v>
@@ -8914,8 +8910,8 @@
       <c r="E149" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F149" s="1" t="s">
-        <v>600</v>
+      <c r="F149" s="4" t="s">
+        <v>599</v>
       </c>
       <c r="G149" s="1">
         <v>1994</v>
@@ -8930,18 +8926,18 @@
         <v>4</v>
       </c>
       <c r="K149" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="L149" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="L149" s="1" t="s">
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="150" spans="1:12">
-      <c r="A150" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>604</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>14</v>
@@ -8952,7 +8948,7 @@
       <c r="E150" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F150" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G150" s="1">
@@ -8968,18 +8964,18 @@
         <v>5</v>
       </c>
       <c r="K150" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L150" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="L150" s="1" t="s">
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="151" spans="1:12">
-      <c r="A151" s="1" t="s">
-        <v>607</v>
-      </c>
       <c r="B151" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>14</v>
@@ -8990,7 +8986,7 @@
       <c r="E151" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="F151" s="4" t="s">
         <v>285</v>
       </c>
       <c r="G151" s="1">
@@ -9006,18 +9002,18 @@
         <v>5</v>
       </c>
       <c r="K151" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="L151" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="L151" s="1" t="s">
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="152" spans="1:12">
-      <c r="A152" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>611</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>14</v>
@@ -9028,8 +9024,8 @@
       <c r="E152" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>612</v>
+      <c r="F152" s="4" t="s">
+        <v>611</v>
       </c>
       <c r="G152" s="1">
         <v>2022</v>
@@ -9044,18 +9040,18 @@
         <v>4</v>
       </c>
       <c r="K152" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="L152" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="L152" s="1" t="s">
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="153" spans="1:12">
-      <c r="A153" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>14</v>
@@ -9066,7 +9062,7 @@
       <c r="E153" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="F153" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G153" s="1">
@@ -9082,18 +9078,18 @@
         <v>3</v>
       </c>
       <c r="K153" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="L153" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="L153" s="1" t="s">
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="154" spans="1:12">
-      <c r="A154" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>620</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>14</v>
@@ -9104,8 +9100,8 @@
       <c r="E154" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>621</v>
+      <c r="F154" s="4" t="s">
+        <v>620</v>
       </c>
       <c r="G154" s="1">
         <v>2021</v>
@@ -9120,18 +9116,18 @@
         <v>4</v>
       </c>
       <c r="K154" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="L154" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="L154" s="1" t="s">
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>623</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
-      <c r="A155" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>14</v>
@@ -9142,8 +9138,8 @@
       <c r="E155" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F155" s="1" t="s">
-        <v>621</v>
+      <c r="F155" s="4" t="s">
+        <v>620</v>
       </c>
       <c r="G155" s="1">
         <v>2023</v>
@@ -9161,15 +9157,15 @@
         <v>212</v>
       </c>
       <c r="L155" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="156" spans="1:12">
-      <c r="A156" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>14</v>
@@ -9180,8 +9176,8 @@
       <c r="E156" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>628</v>
+      <c r="F156" s="4" t="s">
+        <v>627</v>
       </c>
       <c r="G156" s="1">
         <v>1998</v>
@@ -9196,18 +9192,18 @@
         <v>2</v>
       </c>
       <c r="K156" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="L156" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="L156" s="1" t="s">
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>630</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
-      <c r="A157" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>14</v>
@@ -9218,8 +9214,8 @@
       <c r="E157" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>632</v>
+      <c r="F157" s="4" t="s">
+        <v>631</v>
       </c>
       <c r="G157" s="1">
         <v>2000</v>
@@ -9234,18 +9230,18 @@
         <v>3</v>
       </c>
       <c r="K157" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L157" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="L157" s="1" t="s">
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="158" spans="1:12">
-      <c r="A158" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>636</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>14</v>
@@ -9256,7 +9252,7 @@
       <c r="E158" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="F158" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G158" s="1">
@@ -9272,18 +9268,18 @@
         <v>3</v>
       </c>
       <c r="K158" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="L158" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="L158" s="1" t="s">
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="159" spans="1:12">
-      <c r="A159" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>640</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>14</v>
@@ -9294,8 +9290,8 @@
       <c r="E159" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>641</v>
+      <c r="F159" s="4" t="s">
+        <v>640</v>
       </c>
       <c r="G159" s="1">
         <v>2011</v>
@@ -9310,18 +9306,18 @@
         <v>3</v>
       </c>
       <c r="K159" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="L159" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="L159" s="1" t="s">
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="160" spans="1:12">
-      <c r="A160" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>14</v>
@@ -9332,7 +9328,7 @@
       <c r="E160" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F160" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G160" s="1">
@@ -9348,18 +9344,18 @@
         <v>3</v>
       </c>
       <c r="K160" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="L160" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="L160" s="1" t="s">
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>647</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12">
-      <c r="A161" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>14</v>
@@ -9370,7 +9366,7 @@
       <c r="E161" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F161" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G161" s="1">
@@ -9386,18 +9382,18 @@
         <v>4</v>
       </c>
       <c r="K161" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="L161" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="L161" s="1" t="s">
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>650</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12">
-      <c r="A162" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>14</v>
@@ -9408,7 +9404,7 @@
       <c r="E162" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="F162" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G162" s="1">
@@ -9424,18 +9420,18 @@
         <v>4</v>
       </c>
       <c r="K162" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="L162" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="L162" s="1" t="s">
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>653</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" hidden="1">
-      <c r="A163" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>654</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>98</v>
@@ -9446,8 +9442,8 @@
       <c r="E163" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>592</v>
+      <c r="F163" s="4" t="s">
+        <v>591</v>
       </c>
       <c r="G163" s="1">
         <v>2011</v>
@@ -9464,12 +9460,12 @@
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>14</v>
@@ -9480,8 +9476,8 @@
       <c r="E164" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>592</v>
+      <c r="F164" s="4" t="s">
+        <v>591</v>
       </c>
       <c r="G164" s="1">
         <v>2013</v>
@@ -9496,18 +9492,18 @@
         <v>3</v>
       </c>
       <c r="K164" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L164" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="L164" s="1" t="s">
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="165" spans="1:12">
-      <c r="A165" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>14</v>
@@ -9516,7 +9512,7 @@
         <v>11</v>
       </c>
       <c r="E165" s="1"/>
-      <c r="F165" s="1" t="s">
+      <c r="F165" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G165" s="1">
@@ -9532,18 +9528,18 @@
         <v>4</v>
       </c>
       <c r="K165" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="L165" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="L165" s="1" t="s">
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="166" spans="1:12">
-      <c r="A166" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>14</v>
@@ -9554,7 +9550,7 @@
       <c r="E166" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="F166" s="4" t="s">
         <v>191</v>
       </c>
       <c r="G166" s="1">
@@ -9570,18 +9566,18 @@
         <v>3</v>
       </c>
       <c r="K166" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="L166" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="L166" s="1" t="s">
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>664</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12">
-      <c r="A167" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>14</v>
@@ -9592,7 +9588,7 @@
       <c r="E167" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="F167" s="4" t="s">
         <v>191</v>
       </c>
       <c r="G167" s="1">
@@ -9608,18 +9604,18 @@
         <v>3</v>
       </c>
       <c r="K167" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="L167" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="L167" s="1" t="s">
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="168" spans="1:12">
-      <c r="A168" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>14</v>
@@ -9630,8 +9626,8 @@
       <c r="E168" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>670</v>
+      <c r="F168" s="4" t="s">
+        <v>669</v>
       </c>
       <c r="G168" s="1">
         <v>1973</v>
@@ -9646,18 +9642,18 @@
         <v>4</v>
       </c>
       <c r="K168" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="L168" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="L168" s="1" t="s">
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="169" spans="1:12">
-      <c r="A169" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>14</v>
@@ -9668,7 +9664,7 @@
       <c r="E169" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F169" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G169" s="1">
@@ -9684,19 +9680,19 @@
         <v>2</v>
       </c>
       <c r="K169" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="L169" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="L169" s="1" t="s">
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="170" spans="1:12">
-      <c r="A170" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>677</v>
-      </c>
       <c r="C170" s="1" t="s">
         <v>14</v>
       </c>
@@ -9704,7 +9700,7 @@
         <v>15</v>
       </c>
       <c r="E170" s="1"/>
-      <c r="F170" s="1" t="s">
+      <c r="F170" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G170" s="1">
@@ -9720,18 +9716,18 @@
         <v>4</v>
       </c>
       <c r="K170" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="L170" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="L170" s="1" t="s">
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="171" spans="1:12">
-      <c r="A171" s="1" t="s">
+      <c r="B171" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>681</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>14</v>
@@ -9742,8 +9738,8 @@
       <c r="E171" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>682</v>
+      <c r="F171" s="4" t="s">
+        <v>681</v>
       </c>
       <c r="G171" s="1">
         <v>1994</v>
@@ -9758,18 +9754,18 @@
         <v>2</v>
       </c>
       <c r="K171" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="L171" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="L171" s="1" t="s">
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="172" spans="1:12">
-      <c r="A172" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>14</v>
@@ -9780,7 +9776,7 @@
       <c r="E172" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="F172" s="4" t="s">
         <v>370</v>
       </c>
       <c r="G172" s="1">
@@ -9796,18 +9792,18 @@
         <v>3</v>
       </c>
       <c r="K172" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="L172" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="L172" s="1" t="s">
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="173" spans="1:12">
-      <c r="A173" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>690</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>14</v>
@@ -9818,7 +9814,7 @@
       <c r="E173" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="F173" s="4" t="s">
         <v>443</v>
       </c>
       <c r="G173" s="1">
@@ -9834,18 +9830,18 @@
         <v>4</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="L173" s="1" t="s">
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="174" spans="1:12">
-      <c r="A174" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>694</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>14</v>
@@ -9856,8 +9852,8 @@
       <c r="E174" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>695</v>
+      <c r="F174" s="4" t="s">
+        <v>694</v>
       </c>
       <c r="G174" s="1">
         <v>1995</v>
@@ -9872,18 +9868,18 @@
         <v>2</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="L174" s="1" t="s">
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>697</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12">
-      <c r="A175" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>698</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>14</v>
@@ -9894,8 +9890,8 @@
       <c r="E175" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>695</v>
+      <c r="F175" s="4" t="s">
+        <v>694</v>
       </c>
       <c r="G175" s="1">
         <v>1997</v>
@@ -9910,18 +9906,18 @@
         <v>2</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="L175" s="1" t="s">
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>700</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12">
-      <c r="A176" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>701</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>14</v>
@@ -9932,8 +9928,8 @@
       <c r="E176" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>702</v>
+      <c r="F176" s="4" t="s">
+        <v>701</v>
       </c>
       <c r="G176" s="1">
         <v>2000</v>
@@ -9948,18 +9944,18 @@
         <v>1</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="L176" s="1" t="s">
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="177" spans="1:12">
-      <c r="A177" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>14</v>
@@ -9968,8 +9964,8 @@
         <v>10</v>
       </c>
       <c r="E177" s="1"/>
-      <c r="F177" s="1" t="s">
-        <v>707</v>
+      <c r="F177" s="4" t="s">
+        <v>954</v>
       </c>
       <c r="G177" s="1">
         <v>1992</v>
@@ -9984,18 +9980,18 @@
         <v>5</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>709</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12">
-      <c r="A178" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>14</v>
@@ -10006,8 +10002,8 @@
       <c r="E178" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>712</v>
+      <c r="F178" s="4" t="s">
+        <v>710</v>
       </c>
       <c r="G178" s="1">
         <v>1999</v>
@@ -10022,18 +10018,18 @@
         <v>2</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="L178" s="1" t="s">
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>713</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" hidden="1">
-      <c r="A179" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>715</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>98</v>
@@ -10044,8 +10040,8 @@
       <c r="E179" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>716</v>
+      <c r="F179" s="4" t="s">
+        <v>714</v>
       </c>
       <c r="G179" s="1">
         <v>2019</v>
@@ -10062,12 +10058,12 @@
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
     </row>
-    <row r="180" spans="1:12" hidden="1">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>37</v>
@@ -10078,8 +10074,8 @@
       <c r="E180" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>536</v>
+      <c r="F180" s="4" t="s">
+        <v>535</v>
       </c>
       <c r="G180" s="1">
         <v>2019</v>
@@ -10094,16 +10090,16 @@
         <v>4</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="L180" s="1"/>
     </row>
-    <row r="181" spans="1:12" hidden="1">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>98</v>
@@ -10114,8 +10110,8 @@
       <c r="E181" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>716</v>
+      <c r="F181" s="4" t="s">
+        <v>714</v>
       </c>
       <c r="G181" s="1">
         <v>2020</v>
@@ -10132,12 +10128,12 @@
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
     </row>
-    <row r="182" spans="1:12" hidden="1">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>37</v>
@@ -10148,8 +10144,8 @@
       <c r="E182" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>536</v>
+      <c r="F182" s="4" t="s">
+        <v>535</v>
       </c>
       <c r="G182" s="1">
         <v>2020</v>
@@ -10164,16 +10160,16 @@
         <v>5</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="L182" s="1"/>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>14</v>
@@ -10182,10 +10178,10 @@
         <v>13</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>536</v>
+        <v>721</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>535</v>
       </c>
       <c r="G183" s="1">
         <v>2021</v>
@@ -10200,18 +10196,18 @@
         <v>2</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>725</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12">
-      <c r="A184" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>727</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>14</v>
@@ -10222,8 +10218,8 @@
       <c r="E184" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>728</v>
+      <c r="F184" s="4" t="s">
+        <v>726</v>
       </c>
       <c r="G184" s="1">
         <v>2020</v>
@@ -10238,18 +10234,18 @@
         <v>3</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>730</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12">
-      <c r="A185" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>732</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>14</v>
@@ -10260,8 +10256,8 @@
       <c r="E185" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>733</v>
+      <c r="F185" s="4" t="s">
+        <v>731</v>
       </c>
       <c r="G185" s="1">
         <v>2024</v>
@@ -10276,18 +10272,18 @@
         <v>3</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="L185" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12">
-      <c r="A186" s="1" t="s">
-        <v>736</v>
-      </c>
       <c r="B186" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>14</v>
@@ -10298,8 +10294,8 @@
       <c r="E186" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>737</v>
+      <c r="F186" s="4" t="s">
+        <v>735</v>
       </c>
       <c r="G186" s="1">
         <v>2004</v>
@@ -10314,18 +10310,18 @@
         <v>4</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>739</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12">
-      <c r="A187" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>741</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>14</v>
@@ -10336,8 +10332,8 @@
       <c r="E187" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>742</v>
+      <c r="F187" s="4" t="s">
+        <v>740</v>
       </c>
       <c r="G187" s="1">
         <v>1997</v>
@@ -10352,18 +10348,18 @@
         <v>2</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>744</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12">
-      <c r="A188" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>14</v>
@@ -10374,8 +10370,8 @@
       <c r="E188" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>695</v>
+      <c r="F188" s="4" t="s">
+        <v>694</v>
       </c>
       <c r="G188" s="1">
         <v>1987</v>
@@ -10390,18 +10386,18 @@
         <v>3</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>748</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12">
-      <c r="A189" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>750</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>14</v>
@@ -10412,8 +10408,8 @@
       <c r="E189" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>511</v>
+      <c r="F189" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="G189" s="1">
         <v>1986</v>
@@ -10428,18 +10424,18 @@
         <v>3</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>752</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12">
-      <c r="A190" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>754</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>14</v>
@@ -10450,8 +10446,8 @@
       <c r="E190" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>755</v>
+      <c r="F190" s="4" t="s">
+        <v>753</v>
       </c>
       <c r="G190" s="1">
         <v>1997</v>
@@ -10466,26 +10462,26 @@
         <v>4</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A191" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="L190" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12">
-      <c r="A191" s="1" t="s">
-        <v>758</v>
-      </c>
       <c r="B191" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="1" t="s">
-        <v>759</v>
+      <c r="F191" s="4" t="s">
+        <v>955</v>
       </c>
       <c r="G191" s="1">
         <v>1999</v>
@@ -10500,18 +10496,18 @@
         <v>3</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>14</v>
@@ -10522,8 +10518,8 @@
       <c r="E192" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>759</v>
+      <c r="F192" s="4" t="s">
+        <v>955</v>
       </c>
       <c r="G192" s="1">
         <v>2001</v>
@@ -10538,18 +10534,18 @@
         <v>4</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="L192" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12">
-      <c r="A193" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>766</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>14</v>
@@ -10560,8 +10556,8 @@
       <c r="E193" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F193" s="1" t="s">
-        <v>767</v>
+      <c r="F193" s="4" t="s">
+        <v>764</v>
       </c>
       <c r="G193" s="1">
         <v>1973</v>
@@ -10576,18 +10572,18 @@
         <v>2</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A194" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="L193" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12">
-      <c r="A194" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>771</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>14</v>
@@ -10598,34 +10594,34 @@
       <c r="E194" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>772</v>
+      <c r="F194" s="4" t="s">
+        <v>769</v>
       </c>
       <c r="G194" s="1">
         <v>2010</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="J194" s="1">
         <v>3</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>14</v>
@@ -10636,34 +10632,34 @@
       <c r="E195" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>778</v>
+      <c r="F195" s="4" t="s">
+        <v>775</v>
       </c>
       <c r="G195" s="1">
         <v>2013</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="J195" s="1">
         <v>4</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>14</v>
@@ -10674,14 +10670,14 @@
       <c r="E196" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F196" s="1" t="s">
-        <v>782</v>
+      <c r="F196" s="4" t="s">
+        <v>779</v>
       </c>
       <c r="G196" s="1">
         <v>2013</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>18</v>
@@ -10690,18 +10686,18 @@
         <v>4</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" hidden="1">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>98</v>
@@ -10712,14 +10708,14 @@
       <c r="E197" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>782</v>
+      <c r="F197" s="4" t="s">
+        <v>779</v>
       </c>
       <c r="G197" s="1">
         <v>2018</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>18</v>
@@ -10730,12 +10726,12 @@
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
     </row>
-    <row r="198" spans="1:12" hidden="1">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>98</v>
@@ -10746,14 +10742,14 @@
       <c r="E198" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F198" s="1" t="s">
-        <v>782</v>
+      <c r="F198" s="4" t="s">
+        <v>779</v>
       </c>
       <c r="G198" s="1">
         <v>2021</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>18</v>
@@ -10764,12 +10760,12 @@
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
     </row>
-    <row r="199" spans="1:12" hidden="1">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>98</v>
@@ -10780,14 +10776,14 @@
       <c r="E199" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F199" s="1" t="s">
-        <v>782</v>
+      <c r="F199" s="4" t="s">
+        <v>779</v>
       </c>
       <c r="G199" s="1">
         <v>2021</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>18</v>
@@ -10798,12 +10794,12 @@
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>14</v>
@@ -10814,8 +10810,8 @@
       <c r="E200" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F200" s="1" t="s">
-        <v>759</v>
+      <c r="F200" s="4" t="s">
+        <v>955</v>
       </c>
       <c r="G200" s="1">
         <v>2001</v>
@@ -10830,18 +10826,18 @@
         <v>3</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A201" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>790</v>
-      </c>
-      <c r="L200" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12">
-      <c r="A201" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>793</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>14</v>
@@ -10852,8 +10848,8 @@
       <c r="E201" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F201" s="1" t="s">
-        <v>794</v>
+      <c r="F201" s="4" t="s">
+        <v>791</v>
       </c>
       <c r="G201" s="1">
         <v>2015</v>
@@ -10868,18 +10864,18 @@
         <v>3</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>14</v>
@@ -10890,8 +10886,8 @@
       <c r="E202" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F202" s="1" t="s">
-        <v>798</v>
+      <c r="F202" s="4" t="s">
+        <v>795</v>
       </c>
       <c r="G202" s="1">
         <v>2006</v>
@@ -10906,18 +10902,18 @@
         <v>3</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" hidden="1">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>37</v>
@@ -10928,8 +10924,8 @@
       <c r="E203" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F203" s="1" t="s">
-        <v>802</v>
+      <c r="F203" s="4" t="s">
+        <v>799</v>
       </c>
       <c r="G203" s="1">
         <v>2007</v>
@@ -10946,12 +10942,12 @@
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
     </row>
-    <row r="204" spans="1:12" hidden="1">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>37</v>
@@ -10962,8 +10958,8 @@
       <c r="E204" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F204" s="1" t="s">
-        <v>798</v>
+      <c r="F204" s="4" t="s">
+        <v>795</v>
       </c>
       <c r="G204" s="1">
         <v>2008</v>
@@ -10980,12 +10976,12 @@
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>14</v>
@@ -10994,10 +10990,10 @@
         <v>13</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>798</v>
+        <v>721</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>795</v>
       </c>
       <c r="G205" s="1">
         <v>2008</v>
@@ -11012,18 +11008,18 @@
         <v>3</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" hidden="1">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>98</v>
@@ -11034,7 +11030,7 @@
       <c r="E206" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F206" s="1"/>
+      <c r="F206" s="4"/>
       <c r="G206" s="1">
         <v>2009</v>
       </c>
@@ -11048,12 +11044,12 @@
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
     </row>
-    <row r="207" spans="1:12" hidden="1">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>98</v>
@@ -11064,7 +11060,7 @@
       <c r="E207" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F207" s="1"/>
+      <c r="F207" s="4"/>
       <c r="G207" s="1">
         <v>2009</v>
       </c>
@@ -11078,12 +11074,12 @@
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>14</v>
@@ -11094,8 +11090,8 @@
       <c r="E208" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>810</v>
+      <c r="F208" s="4" t="s">
+        <v>807</v>
       </c>
       <c r="G208" s="1">
         <v>2010</v>
@@ -11110,18 +11106,18 @@
         <v>4</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A209" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="L208" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" hidden="1">
-      <c r="A209" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>812</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>98</v>
@@ -11132,7 +11128,7 @@
       <c r="E209" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F209" s="1"/>
+      <c r="F209" s="4"/>
       <c r="G209" s="1">
         <v>2011</v>
       </c>
@@ -11146,12 +11142,12 @@
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>14</v>
@@ -11162,8 +11158,8 @@
       <c r="E210" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>814</v>
+      <c r="F210" s="4" t="s">
+        <v>811</v>
       </c>
       <c r="G210" s="1">
         <v>2012</v>
@@ -11178,18 +11174,18 @@
         <v>2</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" hidden="1">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>98</v>
@@ -11200,7 +11196,7 @@
       <c r="E211" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F211" s="1"/>
+      <c r="F211" s="4"/>
       <c r="G211" s="1">
         <v>2012</v>
       </c>
@@ -11214,12 +11210,12 @@
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
     </row>
-    <row r="212" spans="1:12" hidden="1">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>98</v>
@@ -11230,7 +11226,7 @@
       <c r="E212" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F212" s="1"/>
+      <c r="F212" s="4"/>
       <c r="G212" s="1">
         <v>2013</v>
       </c>
@@ -11242,9 +11238,9 @@
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B213" s="2">
         <v>1989</v>
@@ -11258,7 +11254,7 @@
       <c r="E213" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F213" s="1" t="s">
+      <c r="F213" s="4" t="s">
         <v>401</v>
       </c>
       <c r="G213" s="1">
@@ -11274,18 +11270,18 @@
         <v>4</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" hidden="1">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>98</v>
@@ -11296,7 +11292,7 @@
       <c r="E214" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F214" s="1"/>
+      <c r="F214" s="4"/>
       <c r="G214" s="1">
         <v>2016</v>
       </c>
@@ -11310,12 +11306,12 @@
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>14</v>
@@ -11326,8 +11322,8 @@
       <c r="E215" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>794</v>
+      <c r="F215" s="4" t="s">
+        <v>791</v>
       </c>
       <c r="G215" s="1">
         <v>2017</v>
@@ -11342,18 +11338,18 @@
         <v>4</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" hidden="1">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>98</v>
@@ -11364,7 +11360,7 @@
       <c r="E216" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F216" s="1"/>
+      <c r="F216" s="4"/>
       <c r="G216" s="1">
         <v>2018</v>
       </c>
@@ -11378,12 +11374,12 @@
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>14</v>
@@ -11394,8 +11390,8 @@
       <c r="E217" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F217" s="1" t="s">
-        <v>827</v>
+      <c r="F217" s="4" t="s">
+        <v>824</v>
       </c>
       <c r="G217" s="1">
         <v>2019</v>
@@ -11410,18 +11406,18 @@
         <v>4</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" hidden="1">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>98</v>
@@ -11432,8 +11428,8 @@
       <c r="E218" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F218" s="1" t="s">
-        <v>831</v>
+      <c r="F218" s="4" t="s">
+        <v>828</v>
       </c>
       <c r="G218" s="1">
         <v>2019</v>
@@ -11450,12 +11446,12 @@
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
     </row>
-    <row r="219" spans="1:12" hidden="1">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>98</v>
@@ -11466,7 +11462,7 @@
       <c r="E219" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F219" s="1"/>
+      <c r="F219" s="4"/>
       <c r="G219" s="1">
         <v>2019</v>
       </c>
@@ -11480,12 +11476,12 @@
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
     </row>
-    <row r="220" spans="1:12" hidden="1">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>98</v>
@@ -11496,7 +11492,7 @@
       <c r="E220" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F220" s="1" t="s">
+      <c r="F220" s="4" t="s">
         <v>401</v>
       </c>
       <c r="G220" s="1">
@@ -11514,12 +11510,12 @@
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>14</v>
@@ -11530,7 +11526,7 @@
       <c r="E221" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F221" s="1" t="s">
+      <c r="F221" s="4" t="s">
         <v>191</v>
       </c>
       <c r="G221" s="1">
@@ -11546,18 +11542,18 @@
         <v>5</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>14</v>
@@ -11568,7 +11564,7 @@
       <c r="E222" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F222" s="1" t="s">
+      <c r="F222" s="4" t="s">
         <v>191</v>
       </c>
       <c r="G222" s="1">
@@ -11584,18 +11580,18 @@
         <v>3</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" hidden="1">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>37</v>
@@ -11606,8 +11602,8 @@
       <c r="E223" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F223" s="1" t="s">
-        <v>798</v>
+      <c r="F223" s="4" t="s">
+        <v>795</v>
       </c>
       <c r="G223" s="1">
         <v>2021</v>
@@ -11624,12 +11620,12 @@
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
     </row>
-    <row r="224" spans="1:12" hidden="1">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>37</v>
@@ -11640,8 +11636,8 @@
       <c r="E224" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F224" s="1" t="s">
-        <v>814</v>
+      <c r="F224" s="4" t="s">
+        <v>811</v>
       </c>
       <c r="G224" s="1">
         <v>2021</v>
@@ -11656,12 +11652,12 @@
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>14</v>
@@ -11670,9 +11666,9 @@
         <v>13</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="F225" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="F225" s="4" t="s">
         <v>401</v>
       </c>
       <c r="G225" s="1">
@@ -11688,18 +11684,18 @@
         <v>3</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" hidden="1">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>98</v>
@@ -11710,7 +11706,7 @@
       <c r="E226" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F226" s="1" t="s">
+      <c r="F226" s="4" t="s">
         <v>191</v>
       </c>
       <c r="G226" s="1">
@@ -11728,12 +11724,12 @@
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
     </row>
-    <row r="227" spans="1:12" hidden="1">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>37</v>
@@ -11744,8 +11740,8 @@
       <c r="E227" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F227" s="1" t="s">
-        <v>810</v>
+      <c r="F227" s="4" t="s">
+        <v>807</v>
       </c>
       <c r="G227" s="1">
         <v>2023</v>
@@ -11760,16 +11756,16 @@
         <v>3</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="L227" s="1"/>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>14</v>
@@ -11778,10 +11774,10 @@
         <v>16</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>851</v>
+        <v>847</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>848</v>
       </c>
       <c r="G228" s="1">
         <v>2024</v>
@@ -11796,18 +11792,18 @@
         <v>2</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>852</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12">
-      <c r="A229" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>855</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>14</v>
@@ -11818,8 +11814,8 @@
       <c r="E229" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F229" s="1" t="s">
-        <v>856</v>
+      <c r="F229" s="4" t="s">
+        <v>853</v>
       </c>
       <c r="G229" s="1">
         <v>1966</v>
@@ -11834,19 +11830,19 @@
         <v>2</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A230" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="L229" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12">
-      <c r="A230" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>860</v>
-      </c>
       <c r="C230" s="1" t="s">
         <v>14</v>
       </c>
@@ -11856,7 +11852,7 @@
       <c r="E230" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F230" s="1"/>
+      <c r="F230" s="4"/>
       <c r="G230" s="1">
         <v>1965</v>
       </c>
@@ -11870,12 +11866,12 @@
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>14</v>
@@ -11886,8 +11882,8 @@
       <c r="E231" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F231" s="1" t="s">
-        <v>862</v>
+      <c r="F231" s="4" t="s">
+        <v>956</v>
       </c>
       <c r="G231" s="1">
         <v>1966</v>
@@ -11902,18 +11898,18 @@
         <v>4</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>14</v>
@@ -11924,8 +11920,8 @@
       <c r="E232" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F232" s="1" t="s">
-        <v>862</v>
+      <c r="F232" s="4" t="s">
+        <v>956</v>
       </c>
       <c r="G232" s="1">
         <v>1967</v>
@@ -11940,18 +11936,18 @@
         <v>2</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>14</v>
@@ -11962,8 +11958,8 @@
       <c r="E233" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F233" s="1" t="s">
-        <v>856</v>
+      <c r="F233" s="4" t="s">
+        <v>853</v>
       </c>
       <c r="G233" s="1">
         <v>1968</v>
@@ -11978,18 +11974,18 @@
         <v>2</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>14</v>
@@ -12000,8 +11996,8 @@
       <c r="E234" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F234" s="1" t="s">
-        <v>856</v>
+      <c r="F234" s="4" t="s">
+        <v>853</v>
       </c>
       <c r="G234" s="1">
         <v>1969</v>
@@ -12016,18 +12012,18 @@
         <v>3</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="235" spans="1:12">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>14</v>
@@ -12038,8 +12034,8 @@
       <c r="E235" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F235" s="1" t="s">
-        <v>875</v>
+      <c r="F235" s="4" t="s">
+        <v>871</v>
       </c>
       <c r="G235" s="1">
         <v>2016</v>
@@ -12054,18 +12050,18 @@
         <v>3</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>14</v>
@@ -12076,8 +12072,8 @@
       <c r="E236" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F236" s="1" t="s">
-        <v>880</v>
+      <c r="F236" s="4" t="s">
+        <v>876</v>
       </c>
       <c r="G236" s="1">
         <v>2001</v>
@@ -12092,18 +12088,18 @@
         <v>2</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>14</v>
@@ -12114,8 +12110,8 @@
       <c r="E237" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F237" s="1" t="s">
-        <v>880</v>
+      <c r="F237" s="4" t="s">
+        <v>876</v>
       </c>
       <c r="G237" s="1">
         <v>2003</v>
@@ -12130,18 +12126,18 @@
         <v>2</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>14</v>
@@ -12152,8 +12148,8 @@
       <c r="E238" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F238" s="1" t="s">
-        <v>888</v>
+      <c r="F238" s="4" t="s">
+        <v>884</v>
       </c>
       <c r="G238" s="1">
         <v>1994</v>
@@ -12168,18 +12164,18 @@
         <v>4</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>14</v>
@@ -12188,10 +12184,10 @@
         <v>12</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>890</v>
       </c>
       <c r="G239" s="1">
         <v>1992</v>
@@ -12206,18 +12202,18 @@
         <v>4</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>14</v>
@@ -12228,8 +12224,8 @@
       <c r="E240" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F240" s="1" t="s">
-        <v>506</v>
+      <c r="F240" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="G240" s="1">
         <v>1987</v>
@@ -12244,18 +12240,18 @@
         <v>3</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12" hidden="1">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>37</v>
@@ -12266,7 +12262,7 @@
       <c r="E241" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F241" s="1" t="s">
+      <c r="F241" s="4" t="s">
         <v>405</v>
       </c>
       <c r="G241" s="1">
@@ -12282,12 +12278,12 @@
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>14</v>
@@ -12298,7 +12294,7 @@
       <c r="E242" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F242" s="1" t="s">
+      <c r="F242" s="4" t="s">
         <v>405</v>
       </c>
       <c r="G242" s="1">
@@ -12314,18 +12310,18 @@
         <v>4</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>905</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>14</v>
@@ -12336,7 +12332,7 @@
       <c r="E243" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F243" s="1" t="s">
+      <c r="F243" s="4" t="s">
         <v>405</v>
       </c>
       <c r="G243" s="1">
@@ -12352,18 +12348,18 @@
         <v>4</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" hidden="1">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>37</v>
@@ -12374,7 +12370,7 @@
       <c r="E244" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F244" s="1"/>
+      <c r="F244" s="4"/>
       <c r="G244" s="1">
         <v>2011</v>
       </c>
@@ -12388,12 +12384,12 @@
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>14</v>
@@ -12404,7 +12400,7 @@
       <c r="E245" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F245" s="1" t="s">
+      <c r="F245" s="4" t="s">
         <v>443</v>
       </c>
       <c r="G245" s="1">
@@ -12420,18 +12416,18 @@
         <v>3</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>14</v>
@@ -12442,7 +12438,7 @@
       <c r="E246" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F246" s="1" t="s">
+      <c r="F246" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G246" s="1">
@@ -12458,18 +12454,18 @@
         <v>3</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="247" spans="1:12">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>14</v>
@@ -12480,8 +12476,8 @@
       <c r="E247" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F247" s="1" t="s">
-        <v>592</v>
+      <c r="F247" s="4" t="s">
+        <v>591</v>
       </c>
       <c r="G247" s="1">
         <v>2022</v>
@@ -12496,18 +12492,18 @@
         <v>4</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12" hidden="1">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>37</v>
@@ -12518,8 +12514,8 @@
       <c r="E248" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F248" s="1" t="s">
-        <v>919</v>
+      <c r="F248" s="4" t="s">
+        <v>915</v>
       </c>
       <c r="G248" s="1">
         <v>2010</v>
@@ -12536,12 +12532,12 @@
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
     </row>
-    <row r="249" spans="1:12" hidden="1">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>37</v>
@@ -12552,7 +12548,7 @@
       <c r="E249" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F249" s="1" t="s">
+      <c r="F249" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G249" s="1">
@@ -12570,12 +12566,12 @@
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
     </row>
-    <row r="250" spans="1:12" hidden="1">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>37</v>
@@ -12586,7 +12582,7 @@
       <c r="E250" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F250" s="1" t="s">
+      <c r="F250" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G250" s="1">
@@ -12604,12 +12600,12 @@
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>922</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>14</v>
@@ -12620,7 +12616,7 @@
       <c r="E251" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F251" s="1" t="s">
+      <c r="F251" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G251" s="1">
@@ -12636,18 +12632,18 @@
         <v>5</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="252" spans="1:12" hidden="1">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>98</v>
@@ -12658,7 +12654,7 @@
       <c r="E252" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F252" s="1" t="s">
+      <c r="F252" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G252" s="1">
@@ -12676,12 +12672,12 @@
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
     </row>
-    <row r="253" spans="1:12">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>14</v>
@@ -12692,7 +12688,7 @@
       <c r="E253" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F253" s="1" t="s">
+      <c r="F253" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G253" s="1">
@@ -12708,18 +12704,18 @@
         <v>3</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="254" spans="1:12">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>14</v>
@@ -12730,7 +12726,7 @@
       <c r="E254" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F254" s="1" t="s">
+      <c r="F254" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G254" s="1">
@@ -12746,18 +12742,18 @@
         <v>5</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="255" spans="1:12">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>14</v>
@@ -12768,8 +12764,8 @@
       <c r="E255" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F255" s="1" t="s">
-        <v>600</v>
+      <c r="F255" s="4" t="s">
+        <v>599</v>
       </c>
       <c r="G255" s="1">
         <v>1993</v>
@@ -12784,18 +12780,18 @@
         <v>4</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="256" spans="1:12">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>14</v>
@@ -12806,8 +12802,8 @@
       <c r="E256" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F256" s="1" t="s">
-        <v>938</v>
+      <c r="F256" s="4" t="s">
+        <v>934</v>
       </c>
       <c r="G256" s="1">
         <v>2011</v>
@@ -12822,19 +12818,19 @@
         <v>3</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" hidden="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
+      <c r="F257" s="4"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
@@ -12859,44 +12855,44 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="2" max="7" width="10.54296875" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="43.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C1" t="s">
+        <v>938</v>
+      </c>
+      <c r="D1" t="s">
+        <v>939</v>
+      </c>
+      <c r="E1" t="s">
+        <v>940</v>
+      </c>
+      <c r="F1" t="s">
         <v>941</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>942</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>943</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>944</v>
       </c>
-      <c r="F1" t="s">
-        <v>945</v>
-      </c>
-      <c r="G1" t="s">
-        <v>946</v>
-      </c>
-      <c r="H1" t="s">
-        <v>947</v>
-      </c>
-      <c r="I1" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -12904,12 +12900,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -12917,7 +12913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -12925,12 +12921,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -12938,12 +12934,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -12951,20 +12947,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -12972,22 +12968,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -12995,7 +12991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -13003,17 +12999,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>250</v>
       </c>
@@ -13021,7 +13017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>271</v>
       </c>
@@ -13029,12 +13025,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>294</v>
       </c>
@@ -13042,7 +13038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>325</v>
       </c>
@@ -13053,10 +13049,10 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>329</v>
       </c>
@@ -13064,7 +13060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>360</v>
       </c>
@@ -13072,7 +13068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>373</v>
       </c>
@@ -13080,7 +13076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>404</v>
       </c>
@@ -13088,7 +13084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>441</v>
       </c>
@@ -13096,228 +13092,228 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C54">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C60">
         <v>1</v>

--- a/data/ratings.xlsx
+++ b/data/ratings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psygsh\OneDrive\Documents\GitHub Projects\music-ratings-visuals\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2610EA-923F-4073-8E7A-B21AA03FF99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC669AED-7C6A-45D3-84E3-8C4A087AE770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="955">
   <si>
     <t>Artist</t>
   </si>
@@ -963,9 +963,6 @@
     <t>Harry's House</t>
   </si>
   <si>
-    <t>Pop, Synth Pop,</t>
-  </si>
-  <si>
     <t>As It Was</t>
   </si>
   <si>
@@ -1125,9 +1122,6 @@
     <t>Good Kid, m.A.A.d City</t>
   </si>
   <si>
-    <t>Hip Hop, Gangsta Rap</t>
-  </si>
-  <si>
     <t>Compton</t>
   </si>
   <si>
@@ -1137,9 +1131,6 @@
     <t>To Pimp A Butterfly</t>
   </si>
   <si>
-    <t>Hip Hop, Jazz Rap, Prog Rap</t>
-  </si>
-  <si>
     <t>King Kunta</t>
   </si>
   <si>
@@ -1149,9 +1140,6 @@
     <t>DAMN.</t>
   </si>
   <si>
-    <t>Hip Hop</t>
-  </si>
-  <si>
     <t>PRIDE.</t>
   </si>
   <si>
@@ -1197,9 +1185,6 @@
     <t>3cag</t>
   </si>
   <si>
-    <t>Hip Hop, Punk Rap</t>
-  </si>
-  <si>
     <t>Irish, English</t>
   </si>
   <si>
@@ -1353,9 +1338,6 @@
     <t>The Miseducation Of Lauryn Hill</t>
   </si>
   <si>
-    <t>Hip Hop, R&amp;B, Prog Rap</t>
-  </si>
-  <si>
     <t>Forgive Them Father</t>
   </si>
   <si>
@@ -1419,9 +1401,6 @@
     <t>From Zero</t>
   </si>
   <si>
-    <t>Rock, Nu Metal, Rap Rock</t>
-  </si>
-  <si>
     <t>The Emptiness Machine</t>
   </si>
   <si>
@@ -1836,9 +1815,6 @@
     <t>Illmatic</t>
   </si>
   <si>
-    <t>Hip Hop, Rap</t>
-  </si>
-  <si>
     <t>N.Y. State Of Mind</t>
   </si>
   <si>
@@ -1920,9 +1896,6 @@
     <t>Aquemini</t>
   </si>
   <si>
-    <t>Hip Hop, Alt Rap</t>
-  </si>
-  <si>
     <t>Chonkyfire</t>
   </si>
   <si>
@@ -1932,9 +1905,6 @@
     <t>Stankonia</t>
   </si>
   <si>
-    <t>Hip Hop, Funk, Prog Rap</t>
-  </si>
-  <si>
     <t>Gasoline Dreams</t>
   </si>
   <si>
@@ -2691,9 +2661,6 @@
     <t>CrazySexyCool</t>
   </si>
   <si>
-    <t>Hip Hop, R&amp;B</t>
-  </si>
-  <si>
     <t>Waterfalls</t>
   </si>
   <si>
@@ -2908,6 +2875,33 @@
   </si>
   <si>
     <t>Rock, Pop, Psychedelia</t>
+  </si>
+  <si>
+    <t>Rap, Gangsta Rap</t>
+  </si>
+  <si>
+    <t>Rap, Jazz Rap, Prog Rap</t>
+  </si>
+  <si>
+    <t>Rap</t>
+  </si>
+  <si>
+    <t>Rap, Punk Rap</t>
+  </si>
+  <si>
+    <t>Rap, R&amp;B, Prog Rap</t>
+  </si>
+  <si>
+    <t>Rock, Nu Metal, Rap Metal</t>
+  </si>
+  <si>
+    <t>Rap, Alt Rap</t>
+  </si>
+  <si>
+    <t>Rap, Funk, Prog Rap</t>
+  </si>
+  <si>
+    <t>Rap, R&amp;B</t>
   </si>
 </sst>
 </file>
@@ -3324,8 +3318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6159,7 +6153,7 @@
         <v>15</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>308</v>
+        <v>396</v>
       </c>
       <c r="G76" s="1">
         <v>2022</v>
@@ -6174,18 +6168,18 @@
         <v>2</v>
       </c>
       <c r="K76" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="L76" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>14</v>
@@ -6197,7 +6191,7 @@
         <v>15</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G77" s="1">
         <v>1991</v>
@@ -6212,18 +6206,18 @@
         <v>2</v>
       </c>
       <c r="K77" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>14</v>
@@ -6235,7 +6229,7 @@
         <v>15</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G78" s="1">
         <v>1993</v>
@@ -6250,18 +6244,18 @@
         <v>4</v>
       </c>
       <c r="K78" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L78" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>14</v>
@@ -6273,7 +6267,7 @@
         <v>70</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G79" s="1">
         <v>1998</v>
@@ -6288,18 +6282,18 @@
         <v>5</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>14</v>
@@ -6326,18 +6320,18 @@
         <v>4</v>
       </c>
       <c r="K80" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="L80" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>14</v>
@@ -6349,7 +6343,7 @@
         <v>46</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G81" s="1">
         <v>1994</v>
@@ -6364,18 +6358,18 @@
         <v>4</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>14</v>
@@ -6387,7 +6381,7 @@
         <v>15</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G82" s="1">
         <v>2012</v>
@@ -6402,18 +6396,18 @@
         <v>4</v>
       </c>
       <c r="K82" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L82" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>14</v>
@@ -6425,7 +6419,7 @@
         <v>15</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G83" s="1">
         <v>1968</v>
@@ -6440,18 +6434,18 @@
         <v>2</v>
       </c>
       <c r="K83" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L83" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>14</v>
@@ -6463,7 +6457,7 @@
         <v>185</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G84" s="1">
         <v>2001</v>
@@ -6478,18 +6472,18 @@
         <v>3</v>
       </c>
       <c r="K84" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L84" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>14</v>
@@ -6501,7 +6495,7 @@
         <v>124</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G85" s="1">
         <v>2004</v>
@@ -6516,18 +6510,18 @@
         <v>3</v>
       </c>
       <c r="K85" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="L85" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>14</v>
@@ -6539,7 +6533,7 @@
         <v>70</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G86" s="1">
         <v>2005</v>
@@ -6554,18 +6548,18 @@
         <v>4</v>
       </c>
       <c r="K86" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L86" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>14</v>
@@ -6577,7 +6571,7 @@
         <v>70</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G87" s="1">
         <v>2007</v>
@@ -6592,18 +6586,18 @@
         <v>3</v>
       </c>
       <c r="K87" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="L87" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>14</v>
@@ -6615,7 +6609,7 @@
         <v>15</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G88" s="1">
         <v>2010</v>
@@ -6630,18 +6624,18 @@
         <v>5</v>
       </c>
       <c r="K88" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="L88" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>14</v>
@@ -6653,7 +6647,7 @@
         <v>185</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>362</v>
+        <v>946</v>
       </c>
       <c r="G89" s="1">
         <v>2012</v>
@@ -6668,18 +6662,18 @@
         <v>3</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>14</v>
@@ -6691,7 +6685,7 @@
         <v>15</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>366</v>
+        <v>947</v>
       </c>
       <c r="G90" s="1">
         <v>2015</v>
@@ -6706,18 +6700,18 @@
         <v>3</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>14</v>
@@ -6729,7 +6723,7 @@
         <v>15</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>370</v>
+        <v>948</v>
       </c>
       <c r="G91" s="1">
         <v>2017</v>
@@ -6744,18 +6738,18 @@
         <v>4</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>14</v>
@@ -6767,7 +6761,7 @@
         <v>15</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G92" s="1">
         <v>1969</v>
@@ -6782,18 +6776,18 @@
         <v>2</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>14</v>
@@ -6805,13 +6799,13 @@
         <v>15</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G93" s="1">
         <v>2016</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>18</v>
@@ -6820,18 +6814,18 @@
         <v>3</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>14</v>
@@ -6843,7 +6837,7 @@
         <v>15</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>386</v>
+        <v>949</v>
       </c>
       <c r="G94" s="1">
         <v>2018</v>
@@ -6852,24 +6846,24 @@
         <v>226</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="J94" s="1">
         <v>5</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>14</v>
@@ -6881,7 +6875,7 @@
         <v>15</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>386</v>
+        <v>949</v>
       </c>
       <c r="G95" s="1">
         <v>2024</v>
@@ -6890,24 +6884,24 @@
         <v>226</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="J95" s="1">
         <v>5</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>14</v>
@@ -6934,18 +6928,18 @@
         <v>4</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>14</v>
@@ -6972,18 +6966,18 @@
         <v>3</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>14</v>
@@ -6995,7 +6989,7 @@
         <v>124</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G98" s="1">
         <v>2025</v>
@@ -7010,18 +7004,18 @@
         <v>5</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>14</v>
@@ -7033,13 +7027,13 @@
         <v>66</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G99" s="1">
         <v>2008</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>18</v>
@@ -7048,15 +7042,15 @@
         <v>3</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B100" s="2">
         <v>604</v>
@@ -7071,7 +7065,7 @@
         <v>185</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G100" s="1">
         <v>2001</v>
@@ -7080,25 +7074,25 @@
         <v>62</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="J100" s="1">
         <v>2</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="C101" s="1" t="s">
         <v>14</v>
       </c>
@@ -7109,7 +7103,7 @@
         <v>15</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G101" s="1">
         <v>2002</v>
@@ -7118,24 +7112,24 @@
         <v>62</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="J101" s="1">
         <v>2</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>14</v>
@@ -7147,7 +7141,7 @@
         <v>235</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G102" s="1">
         <v>2005</v>
@@ -7156,24 +7150,24 @@
         <v>62</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="J102" s="1">
         <v>2</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>14</v>
@@ -7185,7 +7179,7 @@
         <v>15</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G103" s="1">
         <v>2008</v>
@@ -7194,24 +7188,24 @@
         <v>62</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="J103" s="1">
         <v>3</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>14</v>
@@ -7223,7 +7217,7 @@
         <v>55</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G104" s="1">
         <v>2012</v>
@@ -7238,18 +7232,18 @@
         <v>4</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>37</v>
@@ -7261,7 +7255,7 @@
         <v>70</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G105" s="1">
         <v>2012</v>
@@ -7278,10 +7272,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>14</v>
@@ -7293,7 +7287,7 @@
         <v>162</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G106" s="1">
         <v>2014</v>
@@ -7308,18 +7302,18 @@
         <v>4</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>14</v>
@@ -7331,7 +7325,7 @@
         <v>15</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>438</v>
+        <v>950</v>
       </c>
       <c r="G107" s="1">
         <v>1997</v>
@@ -7346,18 +7340,18 @@
         <v>4</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>14</v>
@@ -7369,7 +7363,7 @@
         <v>15</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G108" s="1">
         <v>1971</v>
@@ -7384,18 +7378,18 @@
         <v>2</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>14</v>
@@ -7405,7 +7399,7 @@
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G109" s="1">
         <v>2006</v>
@@ -7420,18 +7414,18 @@
         <v>3</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>14</v>
@@ -7441,7 +7435,7 @@
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="4" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G110" s="1">
         <v>2009</v>
@@ -7456,18 +7450,18 @@
         <v>4</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>14</v>
@@ -7477,7 +7471,7 @@
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="4" t="s">
-        <v>460</v>
+        <v>951</v>
       </c>
       <c r="G111" s="1">
         <v>2000</v>
@@ -7492,18 +7486,18 @@
         <v>5</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>14</v>
@@ -7515,7 +7509,7 @@
         <v>235</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>460</v>
+        <v>951</v>
       </c>
       <c r="G112" s="1">
         <v>2024</v>
@@ -7530,18 +7524,18 @@
         <v>3</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>14</v>
@@ -7553,7 +7547,7 @@
         <v>15</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G113" s="1">
         <v>2014</v>
@@ -7568,18 +7562,18 @@
         <v>4</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>14</v>
@@ -7591,7 +7585,7 @@
         <v>15</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>366</v>
+        <v>947</v>
       </c>
       <c r="G114" s="1">
         <v>2004</v>
@@ -7606,18 +7600,18 @@
         <v>4</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>14</v>
@@ -7626,7 +7620,7 @@
         <v>12</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>163</v>
@@ -7635,7 +7629,7 @@
         <v>2012</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>18</v>
@@ -7644,18 +7638,18 @@
         <v>4</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>14</v>
@@ -7667,13 +7661,13 @@
         <v>15</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G116" s="1">
         <v>2015</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>18</v>
@@ -7682,18 +7676,18 @@
         <v>4</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>14</v>
@@ -7705,7 +7699,7 @@
         <v>70</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="G117" s="1">
         <v>1971</v>
@@ -7720,18 +7714,18 @@
         <v>3</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>14</v>
@@ -7743,7 +7737,7 @@
         <v>235</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G118" s="1">
         <v>1998</v>
@@ -7758,18 +7752,18 @@
         <v>3</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>14</v>
@@ -7781,7 +7775,7 @@
         <v>55</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G119" s="1">
         <v>2004</v>
@@ -7796,18 +7790,18 @@
         <v>2</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>14</v>
@@ -7819,7 +7813,7 @@
         <v>70</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G120" s="1">
         <v>2005</v>
@@ -7834,18 +7828,18 @@
         <v>2</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>14</v>
@@ -7857,7 +7851,7 @@
         <v>70</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G121" s="1">
         <v>2006</v>
@@ -7872,18 +7866,18 @@
         <v>2</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>14</v>
@@ -7895,7 +7889,7 @@
         <v>70</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G122" s="1">
         <v>1977</v>
@@ -7910,18 +7904,18 @@
         <v>1</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>14</v>
@@ -7933,7 +7927,7 @@
         <v>46</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G123" s="1">
         <v>1986</v>
@@ -7948,18 +7942,18 @@
         <v>4</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>14</v>
@@ -7971,7 +7965,7 @@
         <v>46</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G124" s="1">
         <v>1990</v>
@@ -7986,18 +7980,18 @@
         <v>5</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>14</v>
@@ -8009,7 +8003,7 @@
         <v>235</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G125" s="1">
         <v>1992</v>
@@ -8024,18 +8018,18 @@
         <v>4</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>14</v>
@@ -8047,7 +8041,7 @@
         <v>124</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G126" s="1">
         <v>1983</v>
@@ -8062,18 +8056,18 @@
         <v>4</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>14</v>
@@ -8085,7 +8079,7 @@
         <v>15</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G127" s="1">
         <v>1984</v>
@@ -8100,18 +8094,18 @@
         <v>4</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>14</v>
@@ -8123,7 +8117,7 @@
         <v>15</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G128" s="1">
         <v>1986</v>
@@ -8138,18 +8132,18 @@
         <v>4</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>14</v>
@@ -8176,18 +8170,18 @@
         <v>4</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>14</v>
@@ -8199,7 +8193,7 @@
         <v>70</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G130" s="1">
         <v>2007</v>
@@ -8214,18 +8208,18 @@
         <v>4</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>14</v>
@@ -8237,7 +8231,7 @@
         <v>15</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="G131" s="1">
         <v>1982</v>
@@ -8252,18 +8246,18 @@
         <v>3</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>14</v>
@@ -8273,7 +8267,7 @@
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="4" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G132" s="1">
         <v>2007</v>
@@ -8288,18 +8282,18 @@
         <v>4</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>14</v>
@@ -8311,7 +8305,7 @@
         <v>185</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G133" s="1">
         <v>1959</v>
@@ -8320,24 +8314,24 @@
         <v>17</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="J133" s="1">
         <v>1</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>14</v>
@@ -8349,7 +8343,7 @@
         <v>70</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G134" s="1">
         <v>1998</v>
@@ -8364,18 +8358,18 @@
         <v>3</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>14</v>
@@ -8387,7 +8381,7 @@
         <v>70</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G135" s="1">
         <v>2010</v>
@@ -8402,18 +8396,18 @@
         <v>2</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>14</v>
@@ -8440,18 +8434,18 @@
         <v>5</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>14</v>
@@ -8478,18 +8472,18 @@
         <v>5</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>14</v>
@@ -8501,7 +8495,7 @@
         <v>70</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G138" s="1">
         <v>2003</v>
@@ -8516,18 +8510,18 @@
         <v>5</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>14</v>
@@ -8539,7 +8533,7 @@
         <v>70</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G139" s="1">
         <v>2006</v>
@@ -8554,18 +8548,18 @@
         <v>4</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>14</v>
@@ -8577,7 +8571,7 @@
         <v>15</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G140" s="1">
         <v>2009</v>
@@ -8592,18 +8586,18 @@
         <v>4</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>14</v>
@@ -8615,7 +8609,7 @@
         <v>15</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G141" s="1">
         <v>2012</v>
@@ -8630,18 +8624,18 @@
         <v>3</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>14</v>
@@ -8653,7 +8647,7 @@
         <v>15</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G142" s="1">
         <v>2015</v>
@@ -8668,18 +8662,18 @@
         <v>4</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>14</v>
@@ -8691,7 +8685,7 @@
         <v>15</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="G143" s="1">
         <v>2002</v>
@@ -8706,18 +8700,18 @@
         <v>3</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>14</v>
@@ -8729,7 +8723,7 @@
         <v>46</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="G144" s="1">
         <v>2004</v>
@@ -8744,18 +8738,18 @@
         <v>4</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>14</v>
@@ -8767,7 +8761,7 @@
         <v>246</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="G145" s="1">
         <v>2006</v>
@@ -8782,18 +8776,18 @@
         <v>5</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>14</v>
@@ -8805,7 +8799,7 @@
         <v>124</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="G146" s="1">
         <v>2010</v>
@@ -8820,18 +8814,18 @@
         <v>4</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>14</v>
@@ -8843,7 +8837,7 @@
         <v>15</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G147" s="1">
         <v>2013</v>
@@ -8857,15 +8851,15 @@
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>98</v>
@@ -8877,7 +8871,7 @@
         <v>15</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="G148" s="1">
         <v>2022</v>
@@ -8896,10 +8890,10 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>14</v>
@@ -8911,7 +8905,7 @@
         <v>185</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>599</v>
+        <v>948</v>
       </c>
       <c r="G149" s="1">
         <v>1994</v>
@@ -8926,18 +8920,18 @@
         <v>4</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>14</v>
@@ -8964,18 +8958,18 @@
         <v>5</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>14</v>
@@ -9002,18 +8996,18 @@
         <v>5</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>14</v>
@@ -9025,7 +9019,7 @@
         <v>15</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="G152" s="1">
         <v>2022</v>
@@ -9040,18 +9034,18 @@
         <v>4</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>14</v>
@@ -9078,18 +9072,18 @@
         <v>3</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>14</v>
@@ -9101,7 +9095,7 @@
         <v>15</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G154" s="1">
         <v>2021</v>
@@ -9116,18 +9110,18 @@
         <v>4</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>14</v>
@@ -9139,7 +9133,7 @@
         <v>162</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G155" s="1">
         <v>2023</v>
@@ -9157,15 +9151,15 @@
         <v>212</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>14</v>
@@ -9177,7 +9171,7 @@
         <v>15</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>627</v>
+        <v>952</v>
       </c>
       <c r="G156" s="1">
         <v>1998</v>
@@ -9192,18 +9186,18 @@
         <v>2</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>14</v>
@@ -9215,7 +9209,7 @@
         <v>15</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>631</v>
+        <v>953</v>
       </c>
       <c r="G157" s="1">
         <v>2000</v>
@@ -9230,18 +9224,18 @@
         <v>3</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>14</v>
@@ -9268,18 +9262,18 @@
         <v>3</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>14</v>
@@ -9291,7 +9285,7 @@
         <v>55</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G159" s="1">
         <v>2011</v>
@@ -9306,18 +9300,18 @@
         <v>3</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>14</v>
@@ -9344,18 +9338,18 @@
         <v>3</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>14</v>
@@ -9382,18 +9376,18 @@
         <v>4</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>14</v>
@@ -9420,18 +9414,18 @@
         <v>4</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>98</v>
@@ -9443,7 +9437,7 @@
         <v>15</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="G163" s="1">
         <v>2011</v>
@@ -9462,10 +9456,10 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>14</v>
@@ -9477,7 +9471,7 @@
         <v>235</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="G164" s="1">
         <v>2013</v>
@@ -9492,18 +9486,18 @@
         <v>3</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>14</v>
@@ -9528,18 +9522,18 @@
         <v>4</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>14</v>
@@ -9566,18 +9560,18 @@
         <v>3</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>14</v>
@@ -9604,18 +9598,18 @@
         <v>3</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>14</v>
@@ -9627,7 +9621,7 @@
         <v>15</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="G168" s="1">
         <v>1973</v>
@@ -9642,18 +9636,18 @@
         <v>4</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>14</v>
@@ -9680,18 +9674,18 @@
         <v>2</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>14</v>
@@ -9716,18 +9710,18 @@
         <v>4</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>14</v>
@@ -9739,7 +9733,7 @@
         <v>15</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="G171" s="1">
         <v>1994</v>
@@ -9754,18 +9748,18 @@
         <v>2</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>14</v>
@@ -9777,7 +9771,7 @@
         <v>70</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>370</v>
+        <v>948</v>
       </c>
       <c r="G172" s="1">
         <v>1988</v>
@@ -9792,18 +9786,18 @@
         <v>3</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>14</v>
@@ -9815,7 +9809,7 @@
         <v>124</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G173" s="1">
         <v>2002</v>
@@ -9830,18 +9824,18 @@
         <v>4</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>14</v>
@@ -9853,7 +9847,7 @@
         <v>15</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G174" s="1">
         <v>1995</v>
@@ -9868,18 +9862,18 @@
         <v>2</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>14</v>
@@ -9891,7 +9885,7 @@
         <v>15</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G175" s="1">
         <v>1997</v>
@@ -9906,18 +9900,18 @@
         <v>2</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>14</v>
@@ -9929,7 +9923,7 @@
         <v>15</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="G176" s="1">
         <v>2000</v>
@@ -9944,18 +9938,18 @@
         <v>1</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>14</v>
@@ -9965,7 +9959,7 @@
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="4" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="G177" s="1">
         <v>1992</v>
@@ -9980,18 +9974,18 @@
         <v>5</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>14</v>
@@ -10003,7 +9997,7 @@
         <v>235</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="G178" s="1">
         <v>1999</v>
@@ -10018,18 +10012,18 @@
         <v>2</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>98</v>
@@ -10041,7 +10035,7 @@
         <v>15</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="G179" s="1">
         <v>2019</v>
@@ -10060,10 +10054,10 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>37</v>
@@ -10075,7 +10069,7 @@
         <v>15</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="G180" s="1">
         <v>2019</v>
@@ -10090,16 +10084,16 @@
         <v>4</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="L180" s="1"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>98</v>
@@ -10111,7 +10105,7 @@
         <v>15</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="G181" s="1">
         <v>2020</v>
@@ -10130,10 +10124,10 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>37</v>
@@ -10145,7 +10139,7 @@
         <v>15</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="G182" s="1">
         <v>2020</v>
@@ -10160,16 +10154,16 @@
         <v>5</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="L182" s="1"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>14</v>
@@ -10178,10 +10172,10 @@
         <v>13</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="G183" s="1">
         <v>2021</v>
@@ -10196,18 +10190,18 @@
         <v>2</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>14</v>
@@ -10219,7 +10213,7 @@
         <v>185</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="G184" s="1">
         <v>2020</v>
@@ -10234,18 +10228,18 @@
         <v>3</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>14</v>
@@ -10257,7 +10251,7 @@
         <v>162</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="G185" s="1">
         <v>2024</v>
@@ -10272,18 +10266,18 @@
         <v>3</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>14</v>
@@ -10295,7 +10289,7 @@
         <v>55</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="G186" s="1">
         <v>2004</v>
@@ -10310,18 +10304,18 @@
         <v>4</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>14</v>
@@ -10333,7 +10327,7 @@
         <v>15</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="G187" s="1">
         <v>1997</v>
@@ -10348,18 +10342,18 @@
         <v>2</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>14</v>
@@ -10371,7 +10365,7 @@
         <v>66</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G188" s="1">
         <v>1987</v>
@@ -10386,18 +10380,18 @@
         <v>3</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>14</v>
@@ -10409,7 +10403,7 @@
         <v>46</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G189" s="1">
         <v>1986</v>
@@ -10424,18 +10418,18 @@
         <v>3</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>14</v>
@@ -10447,7 +10441,7 @@
         <v>15</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="G190" s="1">
         <v>1997</v>
@@ -10462,18 +10456,18 @@
         <v>4</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>14</v>
@@ -10481,7 +10475,7 @@
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="4" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="G191" s="1">
         <v>1999</v>
@@ -10496,18 +10490,18 @@
         <v>3</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>14</v>
@@ -10519,7 +10513,7 @@
         <v>66</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="G192" s="1">
         <v>2001</v>
@@ -10534,18 +10528,18 @@
         <v>4</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>14</v>
@@ -10557,7 +10551,7 @@
         <v>15</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="G193" s="1">
         <v>1973</v>
@@ -10572,18 +10566,18 @@
         <v>2</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>14</v>
@@ -10595,33 +10589,33 @@
         <v>15</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="G194" s="1">
         <v>2010</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="J194" s="1">
         <v>3</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>14</v>
@@ -10633,33 +10627,33 @@
         <v>15</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="G195" s="1">
         <v>2013</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="J195" s="1">
         <v>4</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>14</v>
@@ -10671,13 +10665,13 @@
         <v>66</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="G196" s="1">
         <v>2013</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>18</v>
@@ -10686,18 +10680,18 @@
         <v>4</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>98</v>
@@ -10709,13 +10703,13 @@
         <v>15</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="G197" s="1">
         <v>2018</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>18</v>
@@ -10728,10 +10722,10 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>98</v>
@@ -10743,13 +10737,13 @@
         <v>15</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="G198" s="1">
         <v>2021</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>18</v>
@@ -10762,10 +10756,10 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>98</v>
@@ -10777,13 +10771,13 @@
         <v>15</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="G199" s="1">
         <v>2021</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>18</v>
@@ -10796,10 +10790,10 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>14</v>
@@ -10811,7 +10805,7 @@
         <v>70</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="G200" s="1">
         <v>2001</v>
@@ -10826,18 +10820,18 @@
         <v>3</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>14</v>
@@ -10849,13 +10843,13 @@
         <v>235</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="G201" s="1">
         <v>2015</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>18</v>
@@ -10864,18 +10858,18 @@
         <v>3</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>14</v>
@@ -10887,7 +10881,7 @@
         <v>66</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="G202" s="1">
         <v>2006</v>
@@ -10902,18 +10896,18 @@
         <v>3</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>37</v>
@@ -10925,7 +10919,7 @@
         <v>15</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="G203" s="1">
         <v>2007</v>
@@ -10944,10 +10938,10 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>37</v>
@@ -10959,7 +10953,7 @@
         <v>15</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="G204" s="1">
         <v>2008</v>
@@ -10978,10 +10972,10 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>14</v>
@@ -10990,10 +10984,10 @@
         <v>13</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="G205" s="1">
         <v>2008</v>
@@ -11008,18 +11002,18 @@
         <v>3</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>794</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>804</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>98</v>
@@ -11046,10 +11040,10 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>98</v>
@@ -11076,10 +11070,10 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>14</v>
@@ -11091,7 +11085,7 @@
         <v>55</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="G208" s="1">
         <v>2010</v>
@@ -11106,18 +11100,18 @@
         <v>4</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>98</v>
@@ -11144,10 +11138,10 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>14</v>
@@ -11159,7 +11153,7 @@
         <v>55</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="G210" s="1">
         <v>2012</v>
@@ -11174,18 +11168,18 @@
         <v>2</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>98</v>
@@ -11212,10 +11206,10 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>98</v>
@@ -11240,7 +11234,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B213" s="2">
         <v>1989</v>
@@ -11255,7 +11249,7 @@
         <v>235</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G213" s="1">
         <v>2014</v>
@@ -11270,18 +11264,18 @@
         <v>4</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>98</v>
@@ -11308,10 +11302,10 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>14</v>
@@ -11323,7 +11317,7 @@
         <v>15</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="G215" s="1">
         <v>2017</v>
@@ -11338,18 +11332,18 @@
         <v>4</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>98</v>
@@ -11376,10 +11370,10 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>14</v>
@@ -11391,7 +11385,7 @@
         <v>15</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="G217" s="1">
         <v>2019</v>
@@ -11406,18 +11400,18 @@
         <v>4</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>98</v>
@@ -11429,7 +11423,7 @@
         <v>15</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="G218" s="1">
         <v>2019</v>
@@ -11448,10 +11442,10 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>98</v>
@@ -11478,10 +11472,10 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>98</v>
@@ -11493,7 +11487,7 @@
         <v>15</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G220" s="1">
         <v>2020</v>
@@ -11512,10 +11506,10 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>14</v>
@@ -11542,18 +11536,18 @@
         <v>5</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>14</v>
@@ -11580,18 +11574,18 @@
         <v>3</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>37</v>
@@ -11603,7 +11597,7 @@
         <v>15</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="G223" s="1">
         <v>2021</v>
@@ -11622,10 +11616,10 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>37</v>
@@ -11637,7 +11631,7 @@
         <v>15</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="G224" s="1">
         <v>2021</v>
@@ -11654,10 +11648,10 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>14</v>
@@ -11666,10 +11660,10 @@
         <v>13</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G225" s="1">
         <v>2022</v>
@@ -11684,18 +11678,18 @@
         <v>3</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>98</v>
@@ -11726,10 +11720,10 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>37</v>
@@ -11741,7 +11735,7 @@
         <v>15</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="G227" s="1">
         <v>2023</v>
@@ -11756,16 +11750,16 @@
         <v>3</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="L227" s="1"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>14</v>
@@ -11774,10 +11768,10 @@
         <v>16</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="G228" s="1">
         <v>2024</v>
@@ -11792,18 +11786,18 @@
         <v>2</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>14</v>
@@ -11815,7 +11809,7 @@
         <v>15</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="G229" s="1">
         <v>1966</v>
@@ -11830,18 +11824,18 @@
         <v>2</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>14</v>
@@ -11868,10 +11862,10 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>14</v>
@@ -11883,7 +11877,7 @@
         <v>15</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="G231" s="1">
         <v>1966</v>
@@ -11898,18 +11892,18 @@
         <v>4</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>14</v>
@@ -11921,7 +11915,7 @@
         <v>15</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="G232" s="1">
         <v>1967</v>
@@ -11936,18 +11930,18 @@
         <v>2</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>14</v>
@@ -11959,7 +11953,7 @@
         <v>15</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="G233" s="1">
         <v>1968</v>
@@ -11974,19 +11968,19 @@
         <v>2</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>866</v>
-      </c>
       <c r="C234" s="1" t="s">
         <v>14</v>
       </c>
@@ -11997,7 +11991,7 @@
         <v>15</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="G234" s="1">
         <v>1969</v>
@@ -12012,18 +12006,18 @@
         <v>3</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>14</v>
@@ -12035,7 +12029,7 @@
         <v>70</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="G235" s="1">
         <v>2016</v>
@@ -12050,18 +12044,18 @@
         <v>3</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>14</v>
@@ -12073,7 +12067,7 @@
         <v>124</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="G236" s="1">
         <v>2001</v>
@@ -12088,18 +12082,18 @@
         <v>2</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>14</v>
@@ -12111,7 +12105,7 @@
         <v>124</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="G237" s="1">
         <v>2003</v>
@@ -12126,18 +12120,18 @@
         <v>2</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>14</v>
@@ -12149,7 +12143,7 @@
         <v>70</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>884</v>
+        <v>954</v>
       </c>
       <c r="G238" s="1">
         <v>1994</v>
@@ -12164,18 +12158,18 @@
         <v>4</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>14</v>
@@ -12184,10 +12178,10 @@
         <v>12</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="G239" s="1">
         <v>1992</v>
@@ -12202,18 +12196,18 @@
         <v>4</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>14</v>
@@ -12225,7 +12219,7 @@
         <v>15</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G240" s="1">
         <v>1987</v>
@@ -12240,18 +12234,18 @@
         <v>3</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>37</v>
@@ -12263,7 +12257,7 @@
         <v>15</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G241" s="1">
         <v>2007</v>
@@ -12280,10 +12274,10 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>14</v>
@@ -12295,7 +12289,7 @@
         <v>15</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G242" s="1">
         <v>2008</v>
@@ -12310,18 +12304,18 @@
         <v>4</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>14</v>
@@ -12333,7 +12327,7 @@
         <v>15</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G243" s="1">
         <v>2011</v>
@@ -12348,18 +12342,18 @@
         <v>4</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>37</v>
@@ -12386,10 +12380,10 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>14</v>
@@ -12401,7 +12395,7 @@
         <v>15</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G245" s="1">
         <v>1978</v>
@@ -12416,18 +12410,18 @@
         <v>3</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>14</v>
@@ -12454,18 +12448,18 @@
         <v>3</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>14</v>
@@ -12477,7 +12471,7 @@
         <v>15</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="G247" s="1">
         <v>2022</v>
@@ -12492,18 +12486,18 @@
         <v>4</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>37</v>
@@ -12515,7 +12509,7 @@
         <v>15</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="G248" s="1">
         <v>2010</v>
@@ -12534,10 +12528,10 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>37</v>
@@ -12568,10 +12562,10 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>37</v>
@@ -12602,10 +12596,10 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>14</v>
@@ -12632,18 +12626,18 @@
         <v>5</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>98</v>
@@ -12674,10 +12668,10 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>14</v>
@@ -12704,18 +12698,18 @@
         <v>3</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>914</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>925</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>14</v>
@@ -12742,18 +12736,18 @@
         <v>5</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>14</v>
@@ -12765,7 +12759,7 @@
         <v>15</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>599</v>
+        <v>948</v>
       </c>
       <c r="G255" s="1">
         <v>1993</v>
@@ -12780,18 +12774,18 @@
         <v>4</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>14</v>
@@ -12803,7 +12797,7 @@
         <v>70</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="G256" s="1">
         <v>2011</v>
@@ -12818,10 +12812,10 @@
         <v>3</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.35">
@@ -12868,28 +12862,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="C1" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="D1" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="E1" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="F1" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="G1" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="H1" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="I1" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -12936,7 +12930,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -12949,7 +12943,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -12970,12 +12964,12 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -13001,7 +12995,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -13040,7 +13034,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -13049,12 +13043,12 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -13062,7 +13056,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -13070,7 +13064,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -13078,7 +13072,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -13086,7 +13080,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -13094,7 +13088,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -13102,12 +13096,12 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -13115,7 +13109,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -13123,12 +13117,12 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -13136,7 +13130,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -13144,7 +13138,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -13152,12 +13146,12 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -13165,7 +13159,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -13173,12 +13167,12 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -13186,12 +13180,12 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -13199,7 +13193,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -13207,7 +13201,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -13215,7 +13209,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -13223,7 +13217,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -13231,7 +13225,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -13239,12 +13233,12 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -13252,12 +13246,12 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -13265,7 +13259,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="C54">
         <v>10</v>
@@ -13273,7 +13267,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -13281,7 +13275,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -13289,7 +13283,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -13297,7 +13291,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -13305,7 +13299,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -13313,7 +13307,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="C60">
         <v>1</v>
